--- a/output/exceedence_table.xlsx
+++ b/output/exceedence_table.xlsx
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="27">
   <si>
     <t>Location</t>
   </si>
@@ -103,12 +103,30 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>30 Day Geometric Mean Enterococci Concentration &gt; 35 CFU/mL</t>
+  </si>
+  <si>
+    <t>30 Day Geometric Mean Fecal Coliform Concentration &gt;14 CFU/mL</t>
+  </si>
+  <si>
+    <t>10% of Fecal Coliform Samples in Prior 30 Days &gt;31 CFU/mL</t>
+  </si>
+  <si>
+    <t>10% of Fecal Coliform Samples in Prior 30 Days &gt;400 CFU/mL</t>
+  </si>
+  <si>
+    <t>10% of Enterococci Samples in Prior 30 Days &gt;130 CFU/mL</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,8 +149,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,8 +202,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -256,11 +301,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -330,6 +386,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -338,51 +436,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -619,13 +722,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -638,6 +734,44 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,7 +811,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="exceedence_table" displayName="exceedence_table" ref="A1:G276" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0" dataDxfId="9" headerRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="exceedence_table" displayName="exceedence_table" ref="A1:G276" tableType="queryTable" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8">
   <autoFilter ref="A1:G276">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -693,13 +827,13 @@
     <sortCondition ref="C2:C267"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="17" uniqueName="17" name="Location" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="19" uniqueName="19" name="Bacteria" queryTableFieldId="3" dataDxfId="6"/>
-    <tableColumn id="20" uniqueName="20" name="Date" queryTableFieldId="4" dataDxfId="5"/>
-    <tableColumn id="21" uniqueName="21" name="30 Day Geometric Mean Value" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="22" uniqueName="22" name="Individual Sample Value" queryTableFieldId="6" dataDxfId="3"/>
-    <tableColumn id="23" uniqueName="23" name="30 Day Geometric Mean Exceedence" queryTableFieldId="7" dataDxfId="2"/>
-    <tableColumn id="24" uniqueName="24" name="10% of Individual Samples in Prior 30 Days Exceedence" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="17" uniqueName="17" name="Location" queryTableFieldId="1" dataDxfId="6"/>
+    <tableColumn id="19" uniqueName="19" name="Bacteria" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="20" uniqueName="20" name="Date" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="21" uniqueName="21" name="30 Day Geometric Mean Value" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="22" uniqueName="22" name="Individual Sample Value" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="23" uniqueName="23" name="30 Day Geometric Mean Exceedence" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="24" uniqueName="24" name="10% of Individual Samples in Prior 30 Days Exceedence" queryTableFieldId="8" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -968,11 +1102,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:P307"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J95" sqref="J95"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A286" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J288" sqref="J288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -986,7 +1120,7 @@
     <col min="7" max="7" width="15.109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1008,12 +1142,15 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="I1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4">
@@ -1030,9 +1167,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
       <c r="C3" s="4">
         <v>43614</v>
       </c>
@@ -1047,9 +1184,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="4">
         <v>43620</v>
       </c>
@@ -1064,9 +1201,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="4">
         <v>43627</v>
       </c>
@@ -1081,9 +1218,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="4">
         <v>43634</v>
       </c>
@@ -1098,9 +1235,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="4">
         <v>43641</v>
       </c>
@@ -1113,13 +1250,13 @@
       <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="G7" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="39"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="4">
         <v>43648</v>
       </c>
@@ -1129,16 +1266,16 @@
       <c r="E8" s="3">
         <v>49</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="F8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="39"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="4">
         <v>43655</v>
       </c>
@@ -1148,16 +1285,16 @@
       <c r="E9" s="3">
         <v>49</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="F9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="4">
         <v>43663</v>
       </c>
@@ -1167,16 +1304,16 @@
       <c r="E10" s="3">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="F10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="39"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="4">
         <v>43669</v>
       </c>
@@ -1186,16 +1323,16 @@
       <c r="E11" s="3">
         <v>4.5</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="F11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="4">
         <v>43678</v>
       </c>
@@ -1208,13 +1345,13 @@
       <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="G12" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="39"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="4">
         <v>43683</v>
       </c>
@@ -1224,16 +1361,16 @@
       <c r="E13" s="3">
         <v>65</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="F13" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
       <c r="C14" s="4">
         <v>43697</v>
       </c>
@@ -1246,13 +1383,13 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="G14" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="39"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="4">
         <v>43712</v>
       </c>
@@ -1262,16 +1399,16 @@
       <c r="E15" s="3">
         <v>225</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="F15" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="4">
         <v>43977</v>
       </c>
@@ -1286,9 +1423,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="39"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="4">
         <v>43986</v>
       </c>
@@ -1303,9 +1440,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="4">
         <v>43991</v>
       </c>
@@ -1319,10 +1456,13 @@
       <c r="G18" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="4">
         <v>44000</v>
       </c>
@@ -1337,9 +1477,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="4">
         <v>44005</v>
       </c>
@@ -1354,9 +1494,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="4">
         <v>44011</v>
       </c>
@@ -1366,16 +1506,16 @@
       <c r="E21" s="3">
         <v>310</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
+      <c r="F21" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="4">
         <v>44019</v>
       </c>
@@ -1385,16 +1525,16 @@
       <c r="E22" s="3">
         <v>84</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="F22" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="39"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="4">
         <v>44025</v>
       </c>
@@ -1404,16 +1544,16 @@
       <c r="E23" s="3">
         <v>17</v>
       </c>
-      <c r="F23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="F23" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="39"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="4">
         <v>44032</v>
       </c>
@@ -1423,16 +1563,16 @@
       <c r="E24" s="3">
         <v>280</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="F24" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="4">
         <v>44039</v>
       </c>
@@ -1442,16 +1582,16 @@
       <c r="E25" s="3">
         <v>52</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="F25" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="39"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="4">
         <v>44048</v>
       </c>
@@ -1461,16 +1601,16 @@
       <c r="E26" s="3">
         <v>57</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="F26" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="4">
         <v>44054</v>
       </c>
@@ -1480,16 +1620,16 @@
       <c r="E27" s="3">
         <v>3</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
+      <c r="F27" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="4">
         <v>44061</v>
       </c>
@@ -1499,18 +1639,18 @@
       <c r="E28" s="3">
         <v>76</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="F28" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="38" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="4">
@@ -1527,9 +1667,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
       <c r="C30" s="4">
         <v>43614</v>
       </c>
@@ -1544,9 +1684,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
       <c r="C31" s="4">
         <v>43620</v>
       </c>
@@ -1561,9 +1701,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="4">
         <v>43627</v>
       </c>
@@ -1578,9 +1718,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="4">
         <v>43634</v>
       </c>
@@ -1595,9 +1735,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="4">
         <v>43641</v>
       </c>
@@ -1614,53 +1754,49 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="4">
-        <v>43648</v>
-      </c>
-      <c r="D35" s="3">
-        <v>16.2</v>
-      </c>
-      <c r="E35" s="3">
-        <v>78</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-    </row>
-    <row r="39" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="5.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="44"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="50"/>
+      <c r="G38" s="50"/>
+    </row>
+    <row r="39" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>0</v>
       </c>
@@ -1682,170 +1818,175 @@
       <c r="G39" s="22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="I39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C40" s="4">
+        <v>43648</v>
+      </c>
+      <c r="D40" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>78</v>
+      </c>
+      <c r="F40" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="4">
         <v>43655</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D41" s="3">
         <v>25.2</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E41" s="3">
         <v>45</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="4">
+      <c r="F41" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="4">
         <v>43663</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D42" s="3">
         <v>45.9</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E42" s="3">
         <v>80</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="4">
+      <c r="F42" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="46"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="4">
         <v>43669</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D43" s="3">
         <v>52.3</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E43" s="3">
         <v>56</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="4">
+      <c r="F43" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="4">
         <v>43678</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D44" s="3">
         <v>53.6</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E44" s="3">
         <v>41</v>
       </c>
-      <c r="F43" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="4">
+      <c r="F44" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="46"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="4">
         <v>43683</v>
       </c>
-      <c r="D44" s="3">
+      <c r="D45" s="3">
         <v>27.8</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E45" s="3">
         <v>2</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="4">
+      <c r="F45" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="46"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="4">
         <v>43697</v>
       </c>
-      <c r="D45" s="3">
+      <c r="D46" s="3">
         <v>24.1</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E46" s="3">
         <v>74</v>
       </c>
-      <c r="F45" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="4">
+      <c r="F46" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="4">
         <v>43712</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D47" s="3">
         <v>6.7</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E47" s="3">
         <v>2</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="4">
+      <c r="F47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="4">
         <v>43977</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="4">
-        <v>43986</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3">
-        <v>9.3000000000000007</v>
+        <v>0.5</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>10</v>
@@ -1855,14 +1996,14 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
       <c r="C49" s="4">
-        <v>43991</v>
+        <v>43986</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3">
-        <v>12</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -1872,14 +2013,14 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
       <c r="C50" s="4">
-        <v>44000</v>
+        <v>43991</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>10</v>
@@ -1889,204 +2030,204 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="46"/>
+      <c r="B51" s="46"/>
       <c r="C51" s="4">
-        <v>44005</v>
+        <v>44000</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3">
+        <v>31</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="4">
+        <v>44005</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3">
         <v>28</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="4">
+      <c r="F52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="46"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="4">
         <v>44011</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D53" s="3">
         <v>12.6</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E53" s="3">
         <v>3.3</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="4">
+      <c r="F53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46"/>
+      <c r="C54" s="4">
         <v>44019</v>
       </c>
-      <c r="D53" s="3">
+      <c r="D54" s="3">
         <v>17.7</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E54" s="3">
         <v>50</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="4">
+      <c r="F54" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46"/>
+      <c r="C55" s="4">
         <v>44025</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D55" s="3">
         <v>18.5</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E55" s="3">
         <v>15</v>
       </c>
-      <c r="F54" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="4">
+      <c r="F55" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="46"/>
+      <c r="B56" s="46"/>
+      <c r="C56" s="4">
         <v>44032</v>
       </c>
-      <c r="D55" s="3">
+      <c r="D56" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E56" s="3">
         <v>40</v>
       </c>
-      <c r="F55" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="4">
+      <c r="F56" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="46"/>
+      <c r="B57" s="46"/>
+      <c r="C57" s="4">
         <v>44039</v>
       </c>
-      <c r="D56" s="3">
+      <c r="D57" s="3">
         <v>15.8</v>
       </c>
-      <c r="E56" s="3">
-        <v>10</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="4">
+      <c r="E57" s="3">
+        <v>10</v>
+      </c>
+      <c r="F57" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="46"/>
+      <c r="B58" s="46"/>
+      <c r="C58" s="4">
         <v>44048</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D58" s="3">
         <v>24.4</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E58" s="3">
         <v>29</v>
       </c>
-      <c r="F57" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="4">
+      <c r="F58" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="46"/>
+      <c r="B59" s="46"/>
+      <c r="C59" s="4">
         <v>44054</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D59" s="3">
         <v>20.100000000000001</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="3">
         <v>19</v>
       </c>
-      <c r="F58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="4">
+      <c r="F59" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="4">
         <v>44061</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D60" s="3">
         <v>22.6</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E60" s="3">
         <v>27</v>
       </c>
-      <c r="F59" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="24" t="s">
+      <c r="F60" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B60" s="24" t="s">
+      <c r="B61" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C61" s="4">
         <v>43606</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="4">
-        <v>43614</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>10</v>
@@ -2096,14 +2237,14 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="39"/>
+      <c r="B62" s="39"/>
       <c r="C62" s="4">
-        <v>43620</v>
+        <v>43614</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
@@ -2113,14 +2254,14 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
+      <c r="A63" s="39"/>
+      <c r="B63" s="39"/>
       <c r="C63" s="4">
-        <v>43627</v>
+        <v>43620</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>10</v>
@@ -2130,290 +2271,294 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
+      <c r="A64" s="39"/>
+      <c r="B64" s="39"/>
       <c r="C64" s="4">
-        <v>43634</v>
+        <v>43627</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3">
+        <v>2</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A65" s="39"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="4">
+        <v>43634</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3">
         <v>41</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="4">
+      <c r="F65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A66" s="39"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="4">
         <v>43641</v>
       </c>
-      <c r="D65" s="3">
+      <c r="D66" s="3">
         <v>27.1</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E66" s="3">
         <v>50</v>
       </c>
-      <c r="F65" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="4">
+      <c r="F66" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A67" s="39"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="4">
         <v>43648</v>
       </c>
-      <c r="D66" s="3">
+      <c r="D67" s="3">
         <v>29.9</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E67" s="3">
         <v>57</v>
       </c>
-      <c r="F66" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="4">
+      <c r="F67" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A68" s="39"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="4">
         <v>43655</v>
       </c>
-      <c r="D67" s="3">
+      <c r="D68" s="3">
         <v>17.5</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E68" s="3">
         <v>7</v>
       </c>
-      <c r="F67" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="4">
+      <c r="F68" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A69" s="39"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="4">
         <v>43663</v>
       </c>
-      <c r="D68" s="3">
+      <c r="D69" s="3">
         <v>49</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E69" s="3">
         <v>346</v>
       </c>
-      <c r="F68" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="4">
+      <c r="F69" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A70" s="39"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="4">
         <v>43669</v>
       </c>
-      <c r="D69" s="3">
+      <c r="D70" s="3">
         <v>56.4</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E70" s="3">
         <v>83</v>
       </c>
-      <c r="F69" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="4">
+      <c r="F70" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A71" s="39"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="4">
         <v>43678</v>
       </c>
-      <c r="D70" s="3">
+      <c r="D71" s="3">
         <v>75.099999999999994</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E71" s="3">
         <v>158</v>
       </c>
-      <c r="F70" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="4">
+      <c r="F71" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" s="39"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="4">
         <v>43683</v>
       </c>
-      <c r="D71" s="3">
+      <c r="D72" s="3">
         <v>36.4</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E72" s="3">
         <v>2</v>
       </c>
-      <c r="F71" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="4">
+      <c r="F72" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A73" s="39"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="31">
         <v>43697</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D73" s="32">
         <v>31.8</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E73" s="32">
         <v>39</v>
       </c>
-      <c r="F72" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="4">
+      <c r="F73" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="7.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A75" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="48"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="48"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="P75" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A76" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="49"/>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A77" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="50"/>
+      <c r="F77" s="50"/>
+      <c r="G77" s="50"/>
+    </row>
+    <row r="78" spans="1:16" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A79" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="4">
         <v>43712</v>
       </c>
-      <c r="D73" s="3">
+      <c r="D79" s="3">
         <v>5.4</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E79" s="3">
         <v>2</v>
       </c>
-      <c r="F73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="4">
+      <c r="F79" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G79" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A80" s="39"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="4">
         <v>43977</v>
-      </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3">
-        <v>2</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="26"/>
-      <c r="B75" s="26"/>
-      <c r="C75" s="4">
-        <v>43986</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3">
-        <v>36</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-    </row>
-    <row r="79" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D79" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E79" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C80" s="4">
-        <v>43991</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3">
-        <v>7.7</v>
+        <v>2</v>
       </c>
       <c r="F80" s="3" t="s">
         <v>10</v>
@@ -2423,14 +2568,14 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
+      <c r="A81" s="39"/>
+      <c r="B81" s="39"/>
       <c r="C81" s="4">
-        <v>44000</v>
+        <v>43986</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>10</v>
@@ -2440,125 +2585,121 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
+      <c r="A82" s="39"/>
+      <c r="B82" s="39"/>
       <c r="C82" s="4">
-        <v>44005</v>
+        <v>43991</v>
       </c>
       <c r="D82" s="3"/>
       <c r="E82" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="39"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="4">
+        <v>44000</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3">
+        <v>54</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="39"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="4">
+        <v>44005</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3">
         <v>14</v>
       </c>
-      <c r="F82" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="4">
+      <c r="F84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="39"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="4">
         <v>44011</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D85" s="3">
         <v>14.3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E85" s="3">
         <v>2.9</v>
       </c>
-      <c r="F83" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="4">
+      <c r="F85" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="39"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="4">
         <v>44019</v>
       </c>
-      <c r="D84" s="3">
+      <c r="D86" s="3">
         <v>8.9</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E86" s="3">
         <v>3.3</v>
       </c>
-      <c r="F84" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G84" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="4">
+      <c r="F86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="39"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="4">
         <v>44025</v>
       </c>
-      <c r="D85" s="3">
+      <c r="D87" s="3">
         <v>11.6</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E87" s="3">
         <v>29</v>
       </c>
-      <c r="F85" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="4">
+      <c r="F87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="39"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="4">
         <v>44032</v>
       </c>
-      <c r="D86" s="3">
+      <c r="D88" s="3">
         <v>10.4</v>
-      </c>
-      <c r="E86" s="3">
-        <v>31</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="4">
-        <v>44039</v>
-      </c>
-      <c r="D87" s="3">
-        <v>7</v>
-      </c>
-      <c r="E87" s="3">
-        <v>2</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="4">
-        <v>44048</v>
-      </c>
-      <c r="D88" s="3">
-        <v>11.3</v>
       </c>
       <c r="E88" s="3">
         <v>31</v>
@@ -2566,95 +2707,99 @@
       <c r="F88" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
+      <c r="A89" s="39"/>
+      <c r="B89" s="39"/>
       <c r="C89" s="4">
+        <v>44039</v>
+      </c>
+      <c r="D89" s="3">
+        <v>7</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="4">
+        <v>44048</v>
+      </c>
+      <c r="D90" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="E90" s="3">
+        <v>31</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="4">
         <v>44054</v>
       </c>
-      <c r="D89" s="3">
+      <c r="D91" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E91" s="3">
         <v>43</v>
       </c>
-      <c r="F89" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="26"/>
-      <c r="B90" s="26"/>
-      <c r="C90" s="4">
+      <c r="F91" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="40"/>
+      <c r="B92" s="40"/>
+      <c r="C92" s="4">
         <v>44061</v>
       </c>
-      <c r="D90" s="3">
+      <c r="D92" s="3">
         <v>20.3</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E92" s="3">
         <v>42</v>
       </c>
-      <c r="F90" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="24" t="s">
+      <c r="F92" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="24" t="s">
+      <c r="B93" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="C91" s="4">
+      <c r="C93" s="4">
         <v>43606</v>
-      </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3">
-        <v>8</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="4">
-        <v>43614</v>
-      </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3">
-        <v>25</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="4">
-        <v>43620</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F93" s="3" t="s">
         <v>10</v>
@@ -2664,14 +2809,14 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
+      <c r="A94" s="39"/>
+      <c r="B94" s="39"/>
       <c r="C94" s="4">
-        <v>43627</v>
+        <v>43614</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
@@ -2681,130 +2826,126 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
+      <c r="A95" s="39"/>
+      <c r="B95" s="39"/>
       <c r="C95" s="4">
-        <v>43634</v>
+        <v>43620</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3">
+        <v>9</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="39"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="4">
+        <v>43627</v>
+      </c>
+      <c r="D96" s="3"/>
+      <c r="E96" s="3">
+        <v>5</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="39"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="4">
+        <v>43634</v>
+      </c>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3">
         <v>84</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="4">
+      <c r="F97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="39"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="4">
         <v>43641</v>
       </c>
-      <c r="D96" s="3">
+      <c r="D98" s="3">
         <v>19</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E98" s="3">
         <v>26</v>
       </c>
-      <c r="F96" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="4">
+      <c r="F98" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="39"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="4">
         <v>43648</v>
       </c>
-      <c r="D97" s="3">
+      <c r="D99" s="3">
         <v>24.7</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E99" s="3">
         <v>93</v>
       </c>
-      <c r="F97" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="4">
+      <c r="F99" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="39"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="4">
         <v>43655</v>
       </c>
-      <c r="D98" s="3">
+      <c r="D100" s="3">
         <v>39.1</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E100" s="3">
         <v>90</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="4">
+      <c r="F100" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="39"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="4">
         <v>43663</v>
       </c>
-      <c r="D99" s="3">
+      <c r="D101" s="3">
         <v>93.9</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E101" s="3">
         <v>400</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="4">
-        <v>43669</v>
-      </c>
-      <c r="D100" s="3">
-        <v>93</v>
-      </c>
-      <c r="E100" s="3">
-        <v>80</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="4">
-        <v>43678</v>
-      </c>
-      <c r="D101" s="3">
-        <v>182.1</v>
-      </c>
-      <c r="E101" s="3">
-        <v>382</v>
-      </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G101" s="8" t="s">
@@ -2812,18 +2953,18 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
+      <c r="A102" s="39"/>
+      <c r="B102" s="39"/>
       <c r="C102" s="4">
-        <v>43683</v>
+        <v>43669</v>
       </c>
       <c r="D102" s="3">
-        <v>94.9</v>
+        <v>93</v>
       </c>
       <c r="E102" s="3">
-        <v>7</v>
-      </c>
-      <c r="F102" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F102" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G102" s="8" t="s">
@@ -2831,86 +2972,90 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="39"/>
+      <c r="B103" s="39"/>
       <c r="C103" s="4">
+        <v>43678</v>
+      </c>
+      <c r="D103" s="3">
+        <v>182.1</v>
+      </c>
+      <c r="E103" s="3">
+        <v>382</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" s="39"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="4">
+        <v>43683</v>
+      </c>
+      <c r="D104" s="3">
+        <v>94.9</v>
+      </c>
+      <c r="E104" s="3">
+        <v>7</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" s="39"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="4">
         <v>43697</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D105" s="3">
         <v>63.5</v>
       </c>
-      <c r="E103" s="3">
+      <c r="E105" s="3">
         <v>76</v>
       </c>
-      <c r="F103" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="4">
+      <c r="F105" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="39"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="4">
         <v>43712</v>
       </c>
-      <c r="D104" s="3">
+      <c r="D106" s="3">
         <v>12.9</v>
       </c>
-      <c r="E104" s="3">
+      <c r="E106" s="3">
         <v>4</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="4">
+      <c r="F106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="39"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="4">
         <v>43977</v>
-      </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3">
-        <v>4</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="4">
-        <v>43986</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3">
-        <v>69</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="4">
-        <v>43991</v>
       </c>
       <c r="D107" s="3"/>
       <c r="E107" s="3">
-        <v>3.8450000000000002</v>
+        <v>4</v>
       </c>
       <c r="F107" s="3" t="s">
         <v>10</v>
@@ -2920,14 +3065,14 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
+      <c r="A108" s="39"/>
+      <c r="B108" s="39"/>
       <c r="C108" s="4">
-        <v>43991</v>
+        <v>43986</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3">
-        <v>7.7</v>
+        <v>69</v>
       </c>
       <c r="F108" s="3" t="s">
         <v>10</v>
@@ -2937,14 +3082,14 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
+      <c r="A109" s="39"/>
+      <c r="B109" s="39"/>
       <c r="C109" s="4">
-        <v>44000</v>
+        <v>43991</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3">
-        <v>46</v>
+        <v>3.8450000000000002</v>
       </c>
       <c r="F109" s="3" t="s">
         <v>10</v>
@@ -2954,292 +3099,311 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
+      <c r="A110" s="39"/>
+      <c r="B110" s="39"/>
       <c r="C110" s="4">
-        <v>44005</v>
+        <v>43991</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3">
+        <v>7.7</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="40"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="4">
+        <v>44000</v>
+      </c>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3">
+        <v>46</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="35"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="37"/>
+    </row>
+    <row r="113" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B113" s="48"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+    </row>
+    <row r="114" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="49"/>
+      <c r="G114" s="49"/>
+    </row>
+    <row r="115" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" s="50"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="50"/>
+    </row>
+    <row r="116" spans="1:10" s="20" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I116" s="20">
+        <v>4</v>
+      </c>
+      <c r="J116" s="20">
+        <f>167-115</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="4">
+        <v>44005</v>
+      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3">
         <v>49</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
-      <c r="C111" s="4">
+      <c r="F117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J117">
+        <f>J116-37</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="39"/>
+      <c r="B118" s="39"/>
+      <c r="C118" s="4">
         <v>44011</v>
       </c>
-      <c r="D111" s="3">
+      <c r="D118" s="3">
         <v>17.2</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E118" s="3">
         <v>5.7</v>
       </c>
-      <c r="F111" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="4">
+      <c r="F118" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118">
+        <f>116+37</f>
+        <v>153</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="39"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="4">
         <v>44019</v>
       </c>
-      <c r="D112" s="3">
+      <c r="D119" s="3">
         <v>13.1</v>
       </c>
-      <c r="E112" s="3">
+      <c r="E119" s="3">
         <v>13</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G112" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="25"/>
-      <c r="B113" s="25"/>
-      <c r="C113" s="4">
+      <c r="F119" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="39"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="4">
         <v>44025</v>
       </c>
-      <c r="D113" s="3">
+      <c r="D120" s="3">
         <v>39.799999999999997</v>
       </c>
-      <c r="E113" s="3">
+      <c r="E120" s="3">
         <v>600</v>
       </c>
-      <c r="F113" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A114" s="26"/>
-      <c r="B114" s="26"/>
-      <c r="C114" s="4">
-        <v>44032</v>
-      </c>
-      <c r="D114" s="3">
-        <v>53.2</v>
-      </c>
-      <c r="E114" s="3">
-        <v>196</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="23"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
-      <c r="D115" s="23"/>
-      <c r="E115" s="23"/>
-      <c r="F115" s="23"/>
-      <c r="G115" s="23"/>
-    </row>
-    <row r="116" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="23"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
-      <c r="D116" s="23"/>
-      <c r="E116" s="23"/>
-      <c r="F116" s="23"/>
-      <c r="G116" s="23"/>
-    </row>
-    <row r="117" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="23"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
-      <c r="D117" s="23"/>
-      <c r="E117" s="23"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="23"/>
-    </row>
-    <row r="118" spans="1:7" s="20" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F118" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G118" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B119" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C119" s="4">
-        <v>44039</v>
-      </c>
-      <c r="D119" s="3">
-        <v>37.6</v>
-      </c>
-      <c r="E119" s="3">
-        <v>8.6</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A120" s="28"/>
-      <c r="B120" s="28"/>
-      <c r="C120" s="4">
-        <v>44048</v>
-      </c>
-      <c r="D120" s="3">
-        <v>75.3</v>
-      </c>
-      <c r="E120" s="3">
-        <v>184</v>
-      </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A121" s="28"/>
-      <c r="B121" s="28"/>
+      <c r="H120" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="39"/>
+      <c r="B121" s="39"/>
       <c r="C121" s="4">
-        <v>44054</v>
+        <v>44032</v>
       </c>
       <c r="D121" s="3">
-        <v>79.400000000000006</v>
+        <v>53.2</v>
       </c>
       <c r="E121" s="3">
-        <v>17</v>
-      </c>
-      <c r="F121" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F121" s="29" t="s">
         <v>12</v>
       </c>
       <c r="G121" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" s="29"/>
-      <c r="B122" s="29"/>
+      <c r="H121" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="39"/>
+      <c r="B122" s="39"/>
       <c r="C122" s="4">
+        <v>44039</v>
+      </c>
+      <c r="D122" s="3">
+        <v>37.6</v>
+      </c>
+      <c r="E122" s="3">
+        <v>8.6</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="39"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="4">
+        <v>44048</v>
+      </c>
+      <c r="D123" s="3">
+        <v>75.3</v>
+      </c>
+      <c r="E123" s="3">
+        <v>184</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="39"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="4">
+        <v>44054</v>
+      </c>
+      <c r="D124" s="3">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="E124" s="3">
+        <v>17</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="40"/>
+      <c r="B125" s="40"/>
+      <c r="C125" s="4">
         <v>44061</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D125" s="3">
         <v>60.4</v>
       </c>
-      <c r="E122" s="3">
+      <c r="E125" s="3">
         <v>153</v>
       </c>
-      <c r="F122" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="24" t="s">
+      <c r="F125" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B123" s="24" t="s">
+      <c r="B126" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C123" s="4">
+      <c r="C126" s="4">
         <v>43614</v>
-      </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3">
-        <v>7</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A124" s="25"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="4">
-        <v>43620</v>
-      </c>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3">
-        <v>10</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
-      <c r="C125" s="4">
-        <v>43627</v>
-      </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3">
-        <v>11</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
-      <c r="C126" s="4">
-        <v>43634</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F126" s="3" t="s">
         <v>10</v>
@@ -3248,15 +3412,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="4">
-        <v>43641</v>
+        <v>43620</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="F127" s="3" t="s">
         <v>10</v>
@@ -3265,22 +3429,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="4">
-        <v>43648</v>
-      </c>
-      <c r="D128" s="3">
-        <v>10.6</v>
-      </c>
+        <v>43627</v>
+      </c>
+      <c r="D128" s="3"/>
       <c r="E128" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F128" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G128" s="5" t="s">
+      <c r="G128" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3288,18 +3450,16 @@
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="4">
-        <v>43655</v>
-      </c>
-      <c r="D129" s="3">
-        <v>11</v>
-      </c>
+        <v>43634</v>
+      </c>
+      <c r="D129" s="3"/>
       <c r="E129" s="3">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F129" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G129" s="5" t="s">
+      <c r="G129" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3307,75 +3467,73 @@
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="4">
-        <v>43663</v>
-      </c>
-      <c r="D130" s="3">
-        <v>15.6</v>
-      </c>
+        <v>43641</v>
+      </c>
+      <c r="D130" s="3"/>
       <c r="E130" s="3">
-        <v>62</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="4">
-        <v>43669</v>
+        <v>43648</v>
       </c>
       <c r="D131" s="3">
-        <v>18.600000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="E131" s="3">
-        <v>42</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="6" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="4">
-        <v>43678</v>
+        <v>43655</v>
       </c>
       <c r="D132" s="3">
-        <v>34.799999999999997</v>
+        <v>11</v>
       </c>
       <c r="E132" s="3">
-        <v>47</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="4">
-        <v>43683</v>
+        <v>43663</v>
       </c>
       <c r="D133" s="3">
-        <v>27.6</v>
+        <v>15.6</v>
       </c>
       <c r="E133" s="3">
-        <v>11</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3383,18 +3541,18 @@
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="4">
-        <v>43697</v>
+        <v>43669</v>
       </c>
       <c r="D134" s="3">
-        <v>19.7</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="E134" s="3">
-        <v>7</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="30" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3402,69 +3560,79 @@
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="4">
-        <v>43712</v>
+        <v>43678</v>
       </c>
       <c r="D135" s="3">
-        <v>7.3</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="E135" s="3">
-        <v>5</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="5" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="F135" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="4">
-        <v>43977</v>
-      </c>
-      <c r="D136" s="3"/>
+        <v>43683</v>
+      </c>
+      <c r="D136" s="3">
+        <v>27.6</v>
+      </c>
       <c r="E136" s="3">
-        <v>3</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A137" s="25"/>
-      <c r="B137" s="25"/>
+      <c r="A137" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" s="24" t="s">
+        <v>9</v>
+      </c>
       <c r="C137" s="4">
-        <v>43986</v>
-      </c>
-      <c r="D137" s="3"/>
+        <v>43697</v>
+      </c>
+      <c r="D137" s="3">
+        <v>19.7</v>
+      </c>
       <c r="E137" s="3">
-        <v>38</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G137" s="30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="4">
-        <v>43991</v>
-      </c>
-      <c r="D138" s="3"/>
+        <v>43712</v>
+      </c>
+      <c r="D138" s="3">
+        <v>7.3</v>
+      </c>
       <c r="E138" s="3">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F138" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G138" s="3" t="s">
+      <c r="G138" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3472,11 +3640,11 @@
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="4">
-        <v>44000</v>
+        <v>43977</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F139" s="3" t="s">
         <v>10</v>
@@ -3489,11 +3657,11 @@
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="4">
-        <v>44005</v>
+        <v>43986</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F140" s="3" t="s">
         <v>10</v>
@@ -3506,56 +3674,50 @@
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="4">
-        <v>44011</v>
-      </c>
-      <c r="D141" s="3">
-        <v>15.9</v>
-      </c>
+        <v>43991</v>
+      </c>
+      <c r="D141" s="3"/>
       <c r="E141" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>11</v>
+        <v>32</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="4">
-        <v>44019</v>
-      </c>
-      <c r="D142" s="3">
-        <v>14.3</v>
-      </c>
+        <v>44000</v>
+      </c>
+      <c r="D142" s="3"/>
       <c r="E142" s="3">
-        <v>22</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>11</v>
+        <v>15</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="4">
-        <v>44025</v>
-      </c>
-      <c r="D143" s="3">
-        <v>12.3</v>
-      </c>
+        <v>44005</v>
+      </c>
+      <c r="D143" s="3"/>
       <c r="E143" s="3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F143" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G143" s="5" t="s">
+      <c r="G143" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3563,634 +3725,619 @@
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="4">
-        <v>44032</v>
+        <v>44011</v>
       </c>
       <c r="D144" s="3">
-        <v>15.3</v>
+        <v>15.9</v>
       </c>
       <c r="E144" s="3">
-        <v>46</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+        <v>3.3</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G144" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="4">
-        <v>44039</v>
+        <v>44019</v>
       </c>
       <c r="D145" s="3">
-        <v>8.6999999999999993</v>
+        <v>14.3</v>
       </c>
       <c r="E145" s="3">
-        <v>1</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F145" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G145" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="4">
-        <v>44048</v>
+        <v>44025</v>
       </c>
       <c r="D146" s="3">
-        <v>10</v>
+        <v>12.3</v>
       </c>
       <c r="E146" s="3">
-        <v>6.7</v>
+        <v>15</v>
       </c>
       <c r="F146" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G146" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G146" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="4">
+        <v>44032</v>
+      </c>
+      <c r="D147" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="E147" s="3">
+        <v>46</v>
+      </c>
+      <c r="F147" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G147" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="4">
+        <v>44039</v>
+      </c>
+      <c r="D148" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="E148" s="3">
+        <v>1</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B149" s="48"/>
+      <c r="C149" s="48"/>
+      <c r="D149" s="48"/>
+      <c r="E149" s="48"/>
+      <c r="F149" s="48"/>
+      <c r="G149" s="48"/>
+    </row>
+    <row r="150" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B150" s="49"/>
+      <c r="C150" s="49"/>
+      <c r="D150" s="49"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="49"/>
+      <c r="G150" s="49"/>
+    </row>
+    <row r="151" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="50"/>
+      <c r="C151" s="50"/>
+      <c r="D151" s="50"/>
+      <c r="E151" s="50"/>
+      <c r="F151" s="50"/>
+      <c r="G151" s="50"/>
+    </row>
+    <row r="152" spans="1:9" s="20" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="4">
+        <v>44048</v>
+      </c>
+      <c r="D153" s="3">
+        <v>10</v>
+      </c>
+      <c r="E153" s="3">
+        <v>6.7</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" s="39"/>
+      <c r="B154" s="39"/>
+      <c r="C154" s="4">
         <v>44054</v>
       </c>
-      <c r="D147" s="3">
+      <c r="D154" s="3">
         <v>6</v>
       </c>
-      <c r="E147" s="3">
+      <c r="E154" s="3">
         <v>1.7</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G147" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A148" s="26"/>
-      <c r="B148" s="26"/>
-      <c r="C148" s="4">
+      <c r="F154" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" s="40"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="4">
         <v>44061</v>
       </c>
-      <c r="D148" s="3">
+      <c r="D155" s="3">
         <v>7.2</v>
       </c>
-      <c r="E148" s="3">
+      <c r="E155" s="3">
         <v>36</v>
       </c>
-      <c r="F148" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A149" s="27" t="s">
+      <c r="F155" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="B156" s="48"/>
+      <c r="C156" s="48"/>
+      <c r="D156" s="48"/>
+      <c r="E156" s="48"/>
+      <c r="F156" s="48"/>
+      <c r="G156" s="48"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" s="49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B157" s="49"/>
+      <c r="C157" s="49"/>
+      <c r="D157" s="49"/>
+      <c r="E157" s="49"/>
+      <c r="F157" s="49"/>
+      <c r="G157" s="49"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B158" s="50"/>
+      <c r="C158" s="50"/>
+      <c r="D158" s="50"/>
+      <c r="E158" s="50"/>
+      <c r="F158" s="50"/>
+      <c r="G158" s="50"/>
+    </row>
+    <row r="159" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="54"/>
+      <c r="B159" s="26"/>
+      <c r="C159" s="17"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
+      <c r="G159" s="18"/>
+    </row>
+    <row r="160" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I160">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B149" s="27" t="s">
+      <c r="B161" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C149" s="4">
+      <c r="C161" s="4">
         <v>43620</v>
       </c>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3">
+      <c r="D161" s="3"/>
+      <c r="E161" s="3">
         <v>6</v>
       </c>
-      <c r="F149" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A150" s="28"/>
-      <c r="B150" s="28"/>
-      <c r="C150" s="4">
+      <c r="F161" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" s="39"/>
+      <c r="B162" s="39"/>
+      <c r="C162" s="4">
         <v>43627</v>
       </c>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3">
+      <c r="D162" s="3"/>
+      <c r="E162" s="3">
         <v>20</v>
       </c>
-      <c r="F150" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A151" s="28"/>
-      <c r="B151" s="28"/>
-      <c r="C151" s="4">
+      <c r="F162" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" s="39"/>
+      <c r="B163" s="39"/>
+      <c r="C163" s="4">
         <v>43634</v>
       </c>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3">
+      <c r="D163" s="3"/>
+      <c r="E163" s="3">
         <v>23</v>
       </c>
-      <c r="F151" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A152" s="28"/>
-      <c r="B152" s="28"/>
-      <c r="C152" s="4">
+      <c r="F163" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" s="39"/>
+      <c r="B164" s="39"/>
+      <c r="C164" s="4">
         <v>43648</v>
-      </c>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3">
-        <v>34</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A153" s="28"/>
-      <c r="B153" s="28"/>
-      <c r="C153" s="4">
-        <v>43655</v>
-      </c>
-      <c r="D153" s="3">
-        <v>21.2</v>
-      </c>
-      <c r="E153" s="3">
-        <v>13</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A154" s="28"/>
-      <c r="B154" s="28"/>
-      <c r="C154" s="4">
-        <v>43663</v>
-      </c>
-      <c r="D154" s="3">
-        <v>10</v>
-      </c>
-      <c r="E154" s="3">
-        <v>1</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A155" s="23"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="23"/>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
-      <c r="F155" s="23"/>
-      <c r="G155" s="23"/>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A156" s="23"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="23"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="23"/>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A157" s="23"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="23"/>
-      <c r="D157" s="23"/>
-      <c r="E157" s="23"/>
-      <c r="F157" s="23"/>
-      <c r="G157" s="23"/>
-    </row>
-    <row r="158" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G158" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A159" s="28"/>
-      <c r="B159" s="28"/>
-      <c r="C159" s="4">
-        <v>43669</v>
-      </c>
-      <c r="D159" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="E159" s="3">
-        <v>2</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A160" s="28"/>
-      <c r="B160" s="28"/>
-      <c r="C160" s="4">
-        <v>43678</v>
-      </c>
-      <c r="D160" s="3">
-        <v>3.4</v>
-      </c>
-      <c r="E160" s="3">
-        <v>5</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A161" s="28"/>
-      <c r="B161" s="28"/>
-      <c r="C161" s="4">
-        <v>43683</v>
-      </c>
-      <c r="D161" s="3">
-        <v>4.2</v>
-      </c>
-      <c r="E161" s="3">
-        <v>10</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A162" s="28"/>
-      <c r="B162" s="28"/>
-      <c r="C162" s="4">
-        <v>43697</v>
-      </c>
-      <c r="D162" s="3">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E162" s="3">
-        <v>6</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A163" s="28"/>
-      <c r="B163" s="28"/>
-      <c r="C163" s="4">
-        <v>43712</v>
-      </c>
-      <c r="D163" s="3">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="E163" s="3">
-        <v>73</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A164" s="28"/>
-      <c r="B164" s="28"/>
-      <c r="C164" s="4">
-        <v>43977</v>
       </c>
       <c r="D164" s="3"/>
       <c r="E164" s="3">
+        <v>34</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" s="39"/>
+      <c r="B165" s="39"/>
+      <c r="C165" s="4">
+        <v>43655</v>
+      </c>
+      <c r="D165" s="3">
+        <v>21.2</v>
+      </c>
+      <c r="E165" s="3">
+        <v>13</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" s="39"/>
+      <c r="B166" s="39"/>
+      <c r="C166" s="4">
+        <v>43663</v>
+      </c>
+      <c r="D166" s="3">
+        <v>10</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" s="39"/>
+      <c r="B167" s="39"/>
+      <c r="C167" s="4">
+        <v>43669</v>
+      </c>
+      <c r="D167" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="E167" s="3">
+        <v>2</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" s="39"/>
+      <c r="B168" s="39"/>
+      <c r="C168" s="4">
+        <v>43678</v>
+      </c>
+      <c r="D168" s="3">
+        <v>3.4</v>
+      </c>
+      <c r="E168" s="3">
+        <v>5</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" s="39"/>
+      <c r="B169" s="39"/>
+      <c r="C169" s="4">
+        <v>43683</v>
+      </c>
+      <c r="D169" s="3">
+        <v>4.2</v>
+      </c>
+      <c r="E169" s="3">
+        <v>10</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" s="39"/>
+      <c r="B170" s="39"/>
+      <c r="C170" s="4">
+        <v>43697</v>
+      </c>
+      <c r="D170" s="3">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E170" s="3">
+        <v>6</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A171" s="39"/>
+      <c r="B171" s="39"/>
+      <c r="C171" s="4">
+        <v>43712</v>
+      </c>
+      <c r="D171" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="E171" s="3">
+        <v>73</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A172" s="39"/>
+      <c r="B172" s="39"/>
+      <c r="C172" s="4">
+        <v>43977</v>
+      </c>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3">
         <v>0.5</v>
       </c>
-      <c r="F164" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A165" s="28"/>
-      <c r="B165" s="28"/>
-      <c r="C165" s="4">
+      <c r="F172" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A173" s="39"/>
+      <c r="B173" s="39"/>
+      <c r="C173" s="4">
         <v>43986</v>
       </c>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3">
-        <v>10</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A166" s="28"/>
-      <c r="B166" s="28"/>
-      <c r="C166" s="4">
+      <c r="D173" s="3"/>
+      <c r="E173" s="3">
+        <v>10</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A174" s="39"/>
+      <c r="B174" s="39"/>
+      <c r="C174" s="4">
         <v>43991</v>
       </c>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3">
+      <c r="D174" s="3"/>
+      <c r="E174" s="3">
         <v>3</v>
       </c>
-      <c r="F166" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A167" s="28"/>
-      <c r="B167" s="28"/>
-      <c r="C167" s="4">
+      <c r="F174" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A175" s="39"/>
+      <c r="B175" s="39"/>
+      <c r="C175" s="4">
         <v>44000</v>
       </c>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3">
+      <c r="D175" s="3"/>
+      <c r="E175" s="3">
         <v>4</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A168" s="28"/>
-      <c r="B168" s="28"/>
-      <c r="C168" s="4">
+      <c r="F175" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A176" s="39"/>
+      <c r="B176" s="39"/>
+      <c r="C176" s="4">
         <v>44005</v>
       </c>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3">
+      <c r="D176" s="3"/>
+      <c r="E176" s="3">
         <v>13</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A169" s="28"/>
-      <c r="B169" s="28"/>
-      <c r="C169" s="4">
+      <c r="F176" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A177" s="39"/>
+      <c r="B177" s="39"/>
+      <c r="C177" s="4">
         <v>44011</v>
       </c>
-      <c r="D169" s="3">
+      <c r="D177" s="3">
         <v>7.6</v>
       </c>
-      <c r="E169" s="3">
+      <c r="E177" s="3">
         <v>16</v>
       </c>
-      <c r="F169" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A170" s="28"/>
-      <c r="B170" s="28"/>
-      <c r="C170" s="4">
+      <c r="F177" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A178" s="39"/>
+      <c r="B178" s="39"/>
+      <c r="C178" s="4">
         <v>44019</v>
       </c>
-      <c r="D170" s="3">
+      <c r="D178" s="3">
         <v>8.5</v>
       </c>
-      <c r="E170" s="3">
+      <c r="E178" s="3">
         <v>18</v>
       </c>
-      <c r="F170" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A171" s="28"/>
-      <c r="B171" s="28"/>
-      <c r="C171" s="4">
+      <c r="F178" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A179" s="39"/>
+      <c r="B179" s="39"/>
+      <c r="C179" s="4">
         <v>44025</v>
       </c>
-      <c r="D171" s="3">
+      <c r="D179" s="3">
         <v>6.8</v>
       </c>
-      <c r="E171" s="3">
-        <v>1</v>
-      </c>
-      <c r="F171" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A172" s="28"/>
-      <c r="B172" s="28"/>
-      <c r="C172" s="4">
-        <v>44032</v>
-      </c>
-      <c r="D172" s="3">
-        <v>10.4</v>
-      </c>
-      <c r="E172" s="3">
-        <v>32</v>
-      </c>
-      <c r="F172" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A173" s="28"/>
-      <c r="B173" s="28"/>
-      <c r="C173" s="4">
-        <v>44039</v>
-      </c>
-      <c r="D173" s="3">
-        <v>8.9</v>
-      </c>
-      <c r="E173" s="3">
-        <v>6</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A174" s="28"/>
-      <c r="B174" s="28"/>
-      <c r="C174" s="4">
-        <v>44048</v>
-      </c>
-      <c r="D174" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E174" s="3">
-        <v>11</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A175" s="28"/>
-      <c r="B175" s="28"/>
-      <c r="C175" s="4">
-        <v>44054</v>
-      </c>
-      <c r="D175" s="3">
-        <v>4</v>
-      </c>
-      <c r="E175" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F175" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G175" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A176" s="29"/>
-      <c r="B176" s="29"/>
-      <c r="C176" s="4">
-        <v>44061</v>
-      </c>
-      <c r="D176" s="3">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="E176" s="3">
-        <v>37</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A177" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B177" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C177" s="4">
-        <v>43606</v>
-      </c>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3">
-        <v>1</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A178" s="28"/>
-      <c r="B178" s="28"/>
-      <c r="C178" s="4">
-        <v>43614</v>
-      </c>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3">
-        <v>2</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A179" s="28"/>
-      <c r="B179" s="28"/>
-      <c r="C179" s="4">
-        <v>43627</v>
-      </c>
-      <c r="D179" s="3"/>
       <c r="E179" s="3">
         <v>1</v>
       </c>
@@ -4202,948 +4349,951 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A180" s="28"/>
-      <c r="B180" s="28"/>
+      <c r="A180" s="39"/>
+      <c r="B180" s="39"/>
       <c r="C180" s="4">
+        <v>44032</v>
+      </c>
+      <c r="D180" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="E180" s="3">
+        <v>32</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A181" s="39"/>
+      <c r="B181" s="39"/>
+      <c r="C181" s="4">
+        <v>44039</v>
+      </c>
+      <c r="D181" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="E181" s="3">
+        <v>6</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A182" s="39"/>
+      <c r="B182" s="39"/>
+      <c r="C182" s="4">
+        <v>44048</v>
+      </c>
+      <c r="D182" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E182" s="3">
+        <v>11</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A183" s="39"/>
+      <c r="B183" s="39"/>
+      <c r="C183" s="4">
+        <v>44054</v>
+      </c>
+      <c r="D183" s="3">
+        <v>4</v>
+      </c>
+      <c r="E183" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A184" s="40"/>
+      <c r="B184" s="40"/>
+      <c r="C184" s="4">
+        <v>44061</v>
+      </c>
+      <c r="D184" s="3">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E184" s="3">
+        <v>37</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A185" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B185" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185" s="4">
+        <v>43606</v>
+      </c>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3">
+        <v>1</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A186" s="39"/>
+      <c r="B186" s="39"/>
+      <c r="C186" s="4">
+        <v>43614</v>
+      </c>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3">
+        <v>2</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A187" s="39"/>
+      <c r="B187" s="39"/>
+      <c r="C187" s="4">
+        <v>43627</v>
+      </c>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3">
+        <v>1</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A188" s="39"/>
+      <c r="B188" s="39"/>
+      <c r="C188" s="4">
         <v>43634</v>
       </c>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3">
+      <c r="D188" s="3"/>
+      <c r="E188" s="3">
         <v>17</v>
       </c>
-      <c r="F180" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A181" s="28"/>
-      <c r="B181" s="28"/>
-      <c r="C181" s="4">
+      <c r="F188" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="39"/>
+      <c r="B189" s="39"/>
+      <c r="C189" s="17">
         <v>43641</v>
       </c>
-      <c r="D181" s="3">
+      <c r="D189" s="23">
         <v>3.2</v>
       </c>
-      <c r="E181" s="3">
+      <c r="E189" s="23">
         <v>3</v>
       </c>
-      <c r="F181" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A182" s="28"/>
-      <c r="B182" s="28"/>
-      <c r="C182" s="4">
+      <c r="F189" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G189" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="39"/>
+      <c r="B190" s="39"/>
+      <c r="C190" s="17">
         <v>43648</v>
       </c>
-      <c r="D182" s="3">
+      <c r="D190" s="23">
         <v>7.1</v>
       </c>
-      <c r="E182" s="3">
+      <c r="E190" s="23">
         <v>50</v>
       </c>
-      <c r="F182" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G182" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A183" s="28"/>
-      <c r="B183" s="28"/>
-      <c r="C183" s="4">
+      <c r="F190" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="39"/>
+      <c r="B191" s="39"/>
+      <c r="C191" s="17">
         <v>43655</v>
       </c>
-      <c r="D183" s="3">
+      <c r="D191" s="23">
         <v>8.4</v>
       </c>
-      <c r="E183" s="3">
+      <c r="E191" s="23">
         <v>16</v>
       </c>
-      <c r="F183" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A184" s="28"/>
-      <c r="B184" s="28"/>
-      <c r="C184" s="4">
+      <c r="F191" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="39"/>
+      <c r="B192" s="39"/>
+      <c r="C192" s="17">
         <v>43663</v>
       </c>
-      <c r="D184" s="3">
+      <c r="D192" s="23">
         <v>14.7</v>
       </c>
-      <c r="E184" s="3">
+      <c r="E192" s="23">
         <v>17</v>
       </c>
-      <c r="F184" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A185" s="28"/>
-      <c r="B185" s="28"/>
-      <c r="C185" s="4">
+      <c r="F192" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="39"/>
+      <c r="B193" s="39"/>
+      <c r="C193" s="17">
         <v>43669</v>
       </c>
-      <c r="D185" s="3">
-        <v>12</v>
-      </c>
-      <c r="E185" s="3">
+      <c r="D193" s="23">
+        <v>12</v>
+      </c>
+      <c r="E193" s="23">
         <v>6</v>
       </c>
-      <c r="F185" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A186" s="28"/>
-      <c r="B186" s="28"/>
-      <c r="C186" s="4">
+      <c r="F193" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="40"/>
+      <c r="B194" s="40"/>
+      <c r="C194" s="17">
         <v>43678</v>
       </c>
-      <c r="D186" s="3">
+      <c r="D194" s="23">
         <v>14.9</v>
       </c>
-      <c r="E186" s="3">
+      <c r="E194" s="23">
         <v>30</v>
       </c>
-      <c r="F186" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A187" s="28"/>
-      <c r="B187" s="28"/>
-      <c r="C187" s="4">
+      <c r="F194" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A195" s="41"/>
+      <c r="B195" s="41"/>
+      <c r="C195" s="41"/>
+      <c r="D195" s="41"/>
+      <c r="E195" s="41"/>
+      <c r="F195" s="41"/>
+      <c r="G195" s="41"/>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A196" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B196" s="52"/>
+      <c r="C196" s="52"/>
+      <c r="D196" s="52"/>
+      <c r="E196" s="52"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="52"/>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A197" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B197" s="53"/>
+      <c r="C197" s="53"/>
+      <c r="D197" s="53"/>
+      <c r="E197" s="53"/>
+      <c r="F197" s="53"/>
+      <c r="G197" s="53"/>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A198" s="51"/>
+      <c r="B198" s="51"/>
+      <c r="C198" s="51"/>
+      <c r="D198" s="51"/>
+      <c r="E198" s="51"/>
+      <c r="F198" s="51"/>
+      <c r="G198" s="51"/>
+    </row>
+    <row r="199" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B200" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200" s="17">
         <v>43683</v>
       </c>
-      <c r="D187" s="3">
-        <v>12</v>
-      </c>
-      <c r="E187" s="3">
+      <c r="D200" s="23">
+        <v>12</v>
+      </c>
+      <c r="E200" s="23">
         <v>5</v>
       </c>
-      <c r="F187" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A188" s="28"/>
-      <c r="B188" s="28"/>
-      <c r="C188" s="4">
+      <c r="F200" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="41"/>
+      <c r="B201" s="41"/>
+      <c r="C201" s="17">
         <v>43697</v>
       </c>
-      <c r="D188" s="3">
+      <c r="D201" s="23">
         <v>11.9</v>
       </c>
-      <c r="E188" s="3">
+      <c r="E201" s="23">
         <v>22</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G188" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A189" s="28"/>
-      <c r="B189" s="28"/>
-      <c r="C189" s="4">
+      <c r="F201" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A202" s="41"/>
+      <c r="B202" s="41"/>
+      <c r="C202" s="4">
         <v>43712</v>
       </c>
-      <c r="D189" s="3">
+      <c r="D202" s="3">
         <v>9.6</v>
       </c>
-      <c r="E189" s="3">
+      <c r="E202" s="3">
         <v>8</v>
       </c>
-      <c r="F189" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G189" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A190" s="28"/>
-      <c r="B190" s="28"/>
-      <c r="C190" s="4">
+      <c r="F202" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A203" s="41"/>
+      <c r="B203" s="41"/>
+      <c r="C203" s="4">
         <v>43977</v>
       </c>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3">
+      <c r="D203" s="3"/>
+      <c r="E203" s="3">
         <v>0.5</v>
       </c>
-      <c r="F190" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G190" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A191" s="28"/>
-      <c r="B191" s="28"/>
-      <c r="C191" s="4">
+      <c r="F203" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A204" s="41"/>
+      <c r="B204" s="41"/>
+      <c r="C204" s="4">
         <v>43986</v>
       </c>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3">
+      <c r="D204" s="3"/>
+      <c r="E204" s="3">
         <v>4</v>
       </c>
-      <c r="F191" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A192" s="28"/>
-      <c r="B192" s="28"/>
-      <c r="C192" s="4">
+      <c r="F204" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A205" s="41"/>
+      <c r="B205" s="41"/>
+      <c r="C205" s="4">
         <v>43991</v>
       </c>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3">
+      <c r="D205" s="3"/>
+      <c r="E205" s="3">
         <v>0.5</v>
       </c>
-      <c r="F192" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A193" s="28"/>
-      <c r="B193" s="28"/>
-      <c r="C193" s="4">
+      <c r="F205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A206" s="41"/>
+      <c r="B206" s="41"/>
+      <c r="C206" s="4">
         <v>44000</v>
       </c>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3">
+      <c r="D206" s="3"/>
+      <c r="E206" s="3">
         <v>13</v>
       </c>
-      <c r="F193" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G193" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A194" s="28"/>
-      <c r="B194" s="28"/>
-      <c r="C194" s="4">
+      <c r="F206" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A207" s="41"/>
+      <c r="B207" s="41"/>
+      <c r="C207" s="31">
         <v>44005</v>
       </c>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3">
+      <c r="D207" s="32"/>
+      <c r="E207" s="32">
         <v>14</v>
       </c>
-      <c r="F194" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G194" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A195" s="23"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="23"/>
-      <c r="D195" s="23"/>
-      <c r="E195" s="23"/>
-      <c r="F195" s="23"/>
-      <c r="G195" s="23"/>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A196" s="23"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="23"/>
-      <c r="D196" s="23"/>
-      <c r="E196" s="23"/>
-      <c r="F196" s="23"/>
-      <c r="G196" s="23"/>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A197" s="23"/>
-      <c r="B197" s="23"/>
-      <c r="C197" s="23"/>
-      <c r="D197" s="23"/>
-      <c r="E197" s="23"/>
-      <c r="F197" s="23"/>
-      <c r="G197" s="23"/>
-    </row>
-    <row r="198" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A198" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B198" s="2" t="s">
+      <c r="F207" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A208" s="41"/>
+      <c r="B208" s="41"/>
+      <c r="C208" s="4">
+        <v>44011</v>
+      </c>
+      <c r="D208" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="E208" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A209" s="41"/>
+      <c r="B209" s="41"/>
+      <c r="C209" s="4">
+        <v>44019</v>
+      </c>
+      <c r="D209" s="3">
+        <v>4</v>
+      </c>
+      <c r="E209" s="3">
+        <v>22</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A210" s="41"/>
+      <c r="B210" s="41"/>
+      <c r="C210" s="4">
+        <v>44025</v>
+      </c>
+      <c r="D210" s="3">
+        <v>4</v>
+      </c>
+      <c r="E210" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A211" s="41"/>
+      <c r="B211" s="41"/>
+      <c r="C211" s="4">
+        <v>44032</v>
+      </c>
+      <c r="D211" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E211" s="3">
+        <v>24</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A212" s="41"/>
+      <c r="B212" s="41"/>
+      <c r="C212" s="4">
+        <v>44039</v>
+      </c>
+      <c r="D212" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E212" s="3">
+        <v>3</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A213" s="41"/>
+      <c r="B213" s="41"/>
+      <c r="C213" s="4">
+        <v>44048</v>
+      </c>
+      <c r="D213" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="E213" s="3">
+        <v>8</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A214" s="41"/>
+      <c r="B214" s="41"/>
+      <c r="C214" s="4">
+        <v>44054</v>
+      </c>
+      <c r="D214" s="3">
+        <v>3.6</v>
+      </c>
+      <c r="E214" s="3">
+        <v>2</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A215" s="41"/>
+      <c r="B215" s="41"/>
+      <c r="C215" s="4">
+        <v>44061</v>
+      </c>
+      <c r="D215" s="3">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E215" s="3">
+        <v>33</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A216" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216" s="4">
+        <v>43606</v>
+      </c>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3">
         <v>1</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="F216" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A217" s="39"/>
+      <c r="B217" s="39"/>
+      <c r="C217" s="4">
+        <v>43614</v>
+      </c>
+      <c r="D217" s="3"/>
+      <c r="E217" s="3">
+        <v>6</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A218" s="39"/>
+      <c r="B218" s="39"/>
+      <c r="C218" s="4">
+        <v>43620</v>
+      </c>
+      <c r="D218" s="3"/>
+      <c r="E218" s="3">
+        <v>139</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A219" s="39"/>
+      <c r="B219" s="39"/>
+      <c r="C219" s="4">
+        <v>43627</v>
+      </c>
+      <c r="D219" s="3"/>
+      <c r="E219" s="3">
+        <v>1</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A220" s="39"/>
+      <c r="B220" s="39"/>
+      <c r="C220" s="4">
+        <v>43634</v>
+      </c>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3">
+        <v>36</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A221" s="39"/>
+      <c r="B221" s="39"/>
+      <c r="C221" s="4">
+        <v>43641</v>
+      </c>
+      <c r="D221" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="E221" s="3">
+        <v>15</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G221" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A222" s="39"/>
+      <c r="B222" s="39"/>
+      <c r="C222" s="4">
+        <v>43648</v>
+      </c>
+      <c r="D222" s="3">
+        <v>20.3</v>
+      </c>
+      <c r="E222" s="3">
+        <v>46</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A223" s="39"/>
+      <c r="B223" s="39"/>
+      <c r="C223" s="4">
+        <v>43655</v>
+      </c>
+      <c r="D223" s="3">
+        <v>9.4</v>
+      </c>
+      <c r="E223" s="3">
+        <v>3</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G223" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A224" s="39"/>
+      <c r="B224" s="39"/>
+      <c r="C224" s="4">
+        <v>43663</v>
+      </c>
+      <c r="D224" s="3">
+        <v>30.7</v>
+      </c>
+      <c r="E224" s="3">
+        <v>365</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A225" s="39"/>
+      <c r="B225" s="39"/>
+      <c r="C225" s="4">
+        <v>43669</v>
+      </c>
+      <c r="D225" s="3">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="E225" s="3">
+        <v>72</v>
+      </c>
+      <c r="F225" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G225" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A226" s="39"/>
+      <c r="B226" s="39"/>
+      <c r="C226" s="4">
+        <v>43678</v>
+      </c>
+      <c r="D226" s="3">
+        <v>69.2</v>
+      </c>
+      <c r="E226" s="3">
+        <v>291</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G226" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A227" s="39"/>
+      <c r="B227" s="39"/>
+      <c r="C227" s="4">
+        <v>43683</v>
+      </c>
+      <c r="D227" s="3">
+        <v>67</v>
+      </c>
+      <c r="E227" s="3">
+        <v>59</v>
+      </c>
+      <c r="F227" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A228" s="39"/>
+      <c r="B228" s="39"/>
+      <c r="C228" s="4">
+        <v>43697</v>
+      </c>
+      <c r="D228" s="3">
+        <v>66.7</v>
+      </c>
+      <c r="E228" s="3">
+        <v>16</v>
+      </c>
+      <c r="F228" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A229" s="39"/>
+      <c r="B229" s="39"/>
+      <c r="C229" s="4">
+        <v>43712</v>
+      </c>
+      <c r="D229" s="3">
+        <v>26.6</v>
+      </c>
+      <c r="E229" s="3">
+        <v>20</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A230" s="39"/>
+      <c r="B230" s="39"/>
+      <c r="C230" s="4">
+        <v>43977</v>
+      </c>
+      <c r="D230" s="3"/>
+      <c r="E230" s="3">
         <v>2</v>
       </c>
-      <c r="D198" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F198" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G198" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A199" s="28"/>
-      <c r="B199" s="28"/>
-      <c r="C199" s="4">
-        <v>44011</v>
-      </c>
-      <c r="D199" s="3">
-        <v>2.8</v>
-      </c>
-      <c r="E199" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F199" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A200" s="28"/>
-      <c r="B200" s="28"/>
-      <c r="C200" s="4">
-        <v>44019</v>
-      </c>
-      <c r="D200" s="3">
-        <v>4</v>
-      </c>
-      <c r="E200" s="3">
-        <v>22</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A201" s="28"/>
-      <c r="B201" s="28"/>
-      <c r="C201" s="4">
-        <v>44025</v>
-      </c>
-      <c r="D201" s="3">
-        <v>4</v>
-      </c>
-      <c r="E201" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A202" s="28"/>
-      <c r="B202" s="28"/>
-      <c r="C202" s="4">
-        <v>44032</v>
-      </c>
-      <c r="D202" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="E202" s="3">
-        <v>24</v>
-      </c>
-      <c r="F202" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A203" s="28"/>
-      <c r="B203" s="28"/>
-      <c r="C203" s="4">
-        <v>44039</v>
-      </c>
-      <c r="D203" s="3">
-        <v>3.3</v>
-      </c>
-      <c r="E203" s="3">
-        <v>3</v>
-      </c>
-      <c r="F203" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A204" s="28"/>
-      <c r="B204" s="28"/>
-      <c r="C204" s="4">
-        <v>44048</v>
-      </c>
-      <c r="D204" s="3">
-        <v>5.8</v>
-      </c>
-      <c r="E204" s="3">
-        <v>8</v>
-      </c>
-      <c r="F204" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A205" s="28"/>
-      <c r="B205" s="28"/>
-      <c r="C205" s="4">
-        <v>44054</v>
-      </c>
-      <c r="D205" s="3">
-        <v>3.6</v>
-      </c>
-      <c r="E205" s="3">
-        <v>2</v>
-      </c>
-      <c r="F205" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A206" s="29"/>
-      <c r="B206" s="29"/>
-      <c r="C206" s="4">
-        <v>44061</v>
-      </c>
-      <c r="D206" s="3">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="E206" s="3">
-        <v>33</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A207" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B207" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207" s="4">
-        <v>43606</v>
-      </c>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3">
-        <v>1</v>
-      </c>
-      <c r="F207" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A208" s="25"/>
-      <c r="B208" s="25"/>
-      <c r="C208" s="4">
-        <v>43614</v>
-      </c>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3">
-        <v>6</v>
-      </c>
-      <c r="F208" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A209" s="25"/>
-      <c r="B209" s="25"/>
-      <c r="C209" s="4">
-        <v>43620</v>
-      </c>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3">
-        <v>139</v>
-      </c>
-      <c r="F209" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A210" s="25"/>
-      <c r="B210" s="25"/>
-      <c r="C210" s="4">
-        <v>43627</v>
-      </c>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3">
-        <v>1</v>
-      </c>
-      <c r="F210" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A211" s="25"/>
-      <c r="B211" s="25"/>
-      <c r="C211" s="4">
-        <v>43634</v>
-      </c>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3">
-        <v>36</v>
-      </c>
-      <c r="F211" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A212" s="25"/>
-      <c r="B212" s="25"/>
-      <c r="C212" s="4">
-        <v>43641</v>
-      </c>
-      <c r="D212" s="3">
-        <v>13.5</v>
-      </c>
-      <c r="E212" s="3">
-        <v>15</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G212" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A213" s="25"/>
-      <c r="B213" s="25"/>
-      <c r="C213" s="4">
-        <v>43648</v>
-      </c>
-      <c r="D213" s="3">
-        <v>20.3</v>
-      </c>
-      <c r="E213" s="3">
-        <v>46</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G213" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A214" s="25"/>
-      <c r="B214" s="25"/>
-      <c r="C214" s="4">
-        <v>43655</v>
-      </c>
-      <c r="D214" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="E214" s="3">
-        <v>3</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G214" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A215" s="25"/>
-      <c r="B215" s="25"/>
-      <c r="C215" s="4">
-        <v>43663</v>
-      </c>
-      <c r="D215" s="3">
-        <v>30.7</v>
-      </c>
-      <c r="E215" s="3">
-        <v>365</v>
-      </c>
-      <c r="F215" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G215" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A216" s="25"/>
-      <c r="B216" s="25"/>
-      <c r="C216" s="4">
-        <v>43669</v>
-      </c>
-      <c r="D216" s="3">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="E216" s="3">
-        <v>72</v>
-      </c>
-      <c r="F216" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G216" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A217" s="25"/>
-      <c r="B217" s="25"/>
-      <c r="C217" s="4">
-        <v>43678</v>
-      </c>
-      <c r="D217" s="3">
-        <v>69.2</v>
-      </c>
-      <c r="E217" s="3">
-        <v>291</v>
-      </c>
-      <c r="F217" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G217" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A218" s="25"/>
-      <c r="B218" s="25"/>
-      <c r="C218" s="4">
-        <v>43683</v>
-      </c>
-      <c r="D218" s="3">
-        <v>67</v>
-      </c>
-      <c r="E218" s="3">
-        <v>59</v>
-      </c>
-      <c r="F218" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G218" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A219" s="25"/>
-      <c r="B219" s="25"/>
-      <c r="C219" s="4">
-        <v>43697</v>
-      </c>
-      <c r="D219" s="3">
-        <v>66.7</v>
-      </c>
-      <c r="E219" s="3">
-        <v>16</v>
-      </c>
-      <c r="F219" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G219" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A220" s="25"/>
-      <c r="B220" s="25"/>
-      <c r="C220" s="4">
-        <v>43712</v>
-      </c>
-      <c r="D220" s="3">
-        <v>26.6</v>
-      </c>
-      <c r="E220" s="3">
-        <v>20</v>
-      </c>
-      <c r="F220" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A221" s="25"/>
-      <c r="B221" s="25"/>
-      <c r="C221" s="4">
-        <v>43977</v>
-      </c>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3">
-        <v>2</v>
-      </c>
-      <c r="F221" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A222" s="25"/>
-      <c r="B222" s="25"/>
-      <c r="C222" s="4">
+      <c r="F230" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A231" s="39"/>
+      <c r="B231" s="39"/>
+      <c r="C231" s="4">
         <v>43986</v>
       </c>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3">
+      <c r="D231" s="3"/>
+      <c r="E231" s="3">
         <v>27</v>
       </c>
-      <c r="F222" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A223" s="25"/>
-      <c r="B223" s="25"/>
-      <c r="C223" s="4">
+      <c r="F231" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A232" s="39"/>
+      <c r="B232" s="39"/>
+      <c r="C232" s="4">
         <v>43991</v>
       </c>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3">
-        <v>8</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A224" s="25"/>
-      <c r="B224" s="25"/>
-      <c r="C224" s="4">
-        <v>44000</v>
-      </c>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3">
-        <v>13</v>
-      </c>
-      <c r="F224" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G224" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A225" s="25"/>
-      <c r="B225" s="25"/>
-      <c r="C225" s="4">
-        <v>44005</v>
-      </c>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3">
-        <v>18</v>
-      </c>
-      <c r="F225" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G225" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A226" s="25"/>
-      <c r="B226" s="25"/>
-      <c r="C226" s="4">
-        <v>44011</v>
-      </c>
-      <c r="D226" s="3">
-        <v>10</v>
-      </c>
-      <c r="E226" s="3">
-        <v>2</v>
-      </c>
-      <c r="F226" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G226" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A227" s="25"/>
-      <c r="B227" s="25"/>
-      <c r="C227" s="4">
-        <v>44019</v>
-      </c>
-      <c r="D227" s="3">
-        <v>6.8</v>
-      </c>
-      <c r="E227" s="3">
-        <v>4</v>
-      </c>
-      <c r="F227" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A228" s="25"/>
-      <c r="B228" s="25"/>
-      <c r="C228" s="4">
-        <v>44025</v>
-      </c>
-      <c r="D228" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="E228" s="3">
-        <v>5</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A229" s="25"/>
-      <c r="B229" s="25"/>
-      <c r="C229" s="4">
-        <v>44032</v>
-      </c>
-      <c r="D229" s="3">
-        <v>5.3</v>
-      </c>
-      <c r="E229" s="3">
-        <v>6</v>
-      </c>
-      <c r="F229" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A230" s="25"/>
-      <c r="B230" s="25"/>
-      <c r="C230" s="4">
-        <v>44039</v>
-      </c>
-      <c r="D230" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="E230" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="F230" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A231" s="25"/>
-      <c r="B231" s="25"/>
-      <c r="C231" s="4">
-        <v>44048</v>
-      </c>
-      <c r="D231" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="E231" s="3">
-        <v>38</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A232" s="25"/>
-      <c r="B232" s="25"/>
-      <c r="C232" s="4">
-        <v>44054</v>
-      </c>
-      <c r="D232" s="3">
-        <v>5.4</v>
-      </c>
+      <c r="D232" s="3"/>
       <c r="E232" s="3">
         <v>8</v>
       </c>
@@ -5154,585 +5304,564 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A233" s="26"/>
-      <c r="B233" s="26"/>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A233" s="39"/>
+      <c r="B233" s="39"/>
       <c r="C233" s="4">
+        <v>44000</v>
+      </c>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3">
+        <v>13</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A234" s="40"/>
+      <c r="B234" s="40"/>
+      <c r="C234" s="4">
+        <v>44005</v>
+      </c>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3">
+        <v>18</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A235" s="51"/>
+      <c r="B235" s="51"/>
+      <c r="C235" s="51"/>
+      <c r="D235" s="51"/>
+      <c r="E235" s="51"/>
+      <c r="F235" s="51"/>
+      <c r="G235" s="51"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A236" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B236" s="52"/>
+      <c r="C236" s="52"/>
+      <c r="D236" s="52"/>
+      <c r="E236" s="52"/>
+      <c r="F236" s="52"/>
+      <c r="G236" s="52"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A237" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B237" s="53"/>
+      <c r="C237" s="53"/>
+      <c r="D237" s="53"/>
+      <c r="E237" s="53"/>
+      <c r="F237" s="53"/>
+      <c r="G237" s="53"/>
+      <c r="K237" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G238" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H238" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="I238">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A239" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239" s="4">
+        <v>44011</v>
+      </c>
+      <c r="D239" s="3">
+        <v>10</v>
+      </c>
+      <c r="E239" s="3">
+        <v>2</v>
+      </c>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A240" s="39"/>
+      <c r="B240" s="39"/>
+      <c r="C240" s="4">
+        <v>44019</v>
+      </c>
+      <c r="D240" s="3">
+        <v>6.8</v>
+      </c>
+      <c r="E240" s="3">
+        <v>4</v>
+      </c>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A241" s="39"/>
+      <c r="B241" s="39"/>
+      <c r="C241" s="4">
+        <v>44025</v>
+      </c>
+      <c r="D241" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="E241" s="3">
+        <v>5</v>
+      </c>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A242" s="39"/>
+      <c r="B242" s="39"/>
+      <c r="C242" s="4">
+        <v>44032</v>
+      </c>
+      <c r="D242" s="3">
+        <v>5.3</v>
+      </c>
+      <c r="E242" s="3">
+        <v>6</v>
+      </c>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A243" s="39"/>
+      <c r="B243" s="39"/>
+      <c r="C243" s="4">
+        <v>44039</v>
+      </c>
+      <c r="D243" s="3">
+        <v>2.6</v>
+      </c>
+      <c r="E243" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A244" s="39"/>
+      <c r="B244" s="39"/>
+      <c r="C244" s="4">
+        <v>44048</v>
+      </c>
+      <c r="D244" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E244" s="3">
+        <v>38</v>
+      </c>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A245" s="39"/>
+      <c r="B245" s="39"/>
+      <c r="C245" s="4">
+        <v>44054</v>
+      </c>
+      <c r="D245" s="3">
+        <v>5.4</v>
+      </c>
+      <c r="E245" s="3">
+        <v>8</v>
+      </c>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A246" s="40"/>
+      <c r="B246" s="40"/>
+      <c r="C246" s="4">
         <v>44061</v>
       </c>
-      <c r="D233" s="3">
+      <c r="D246" s="3">
         <v>7.3</v>
       </c>
-      <c r="E233" s="3">
+      <c r="E246" s="3">
         <v>23</v>
       </c>
-      <c r="F233" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A234" s="23"/>
-      <c r="B234" s="23"/>
-      <c r="C234" s="23"/>
-      <c r="D234" s="23"/>
-      <c r="E234" s="23"/>
-      <c r="F234" s="23"/>
-      <c r="G234" s="23"/>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A235" s="23"/>
-      <c r="B235" s="23"/>
-      <c r="C235" s="23"/>
-      <c r="D235" s="23"/>
-      <c r="E235" s="23"/>
-      <c r="F235" s="23"/>
-      <c r="G235" s="23"/>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A236" s="23"/>
-      <c r="B236" s="23"/>
-      <c r="C236" s="23"/>
-      <c r="D236" s="23"/>
-      <c r="E236" s="23"/>
-      <c r="F236" s="23"/>
-      <c r="G236" s="23"/>
-    </row>
-    <row r="237" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A237" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C237" s="2" t="s">
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A247" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B247" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247" s="4">
+        <v>43606</v>
+      </c>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3">
+        <v>5</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A248" s="39"/>
+      <c r="B248" s="39"/>
+      <c r="C248" s="4">
+        <v>43614</v>
+      </c>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3">
+        <v>6</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A249" s="39"/>
+      <c r="B249" s="39"/>
+      <c r="C249" s="4">
+        <v>43620</v>
+      </c>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3">
         <v>2</v>
       </c>
-      <c r="D237" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E237" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F237" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G237" s="2" t="s">
+      <c r="F249" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A250" s="39"/>
+      <c r="B250" s="39"/>
+      <c r="C250" s="4">
+        <v>43627</v>
+      </c>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3">
+        <v>7</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A251" s="39"/>
+      <c r="B251" s="39"/>
+      <c r="C251" s="4">
+        <v>43634</v>
+      </c>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3">
+        <v>50</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A252" s="39"/>
+      <c r="B252" s="39"/>
+      <c r="C252" s="4">
+        <v>43641</v>
+      </c>
+      <c r="D252" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="E252" s="3">
+        <v>71</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A253" s="39"/>
+      <c r="B253" s="39"/>
+      <c r="C253" s="4">
+        <v>43648</v>
+      </c>
+      <c r="D253" s="3">
+        <v>29</v>
+      </c>
+      <c r="E253" s="3">
+        <v>411</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G253" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A254" s="39"/>
+      <c r="B254" s="39"/>
+      <c r="C254" s="4">
+        <v>43655</v>
+      </c>
+      <c r="D254" s="3">
+        <v>47.2</v>
+      </c>
+      <c r="E254" s="3">
+        <v>23</v>
+      </c>
+      <c r="F254" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G254" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A255" s="39"/>
+      <c r="B255" s="39"/>
+      <c r="C255" s="4">
+        <v>43663</v>
+      </c>
+      <c r="D255" s="3">
+        <v>119.5</v>
+      </c>
+      <c r="E255" s="3">
+        <v>727</v>
+      </c>
+      <c r="F255" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G255" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A256" s="39"/>
+      <c r="B256" s="39"/>
+      <c r="C256" s="4">
+        <v>43669</v>
+      </c>
+      <c r="D256" s="3">
+        <v>102.3</v>
+      </c>
+      <c r="E256" s="3">
+        <v>23</v>
+      </c>
+      <c r="F256" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G256" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A257" s="39"/>
+      <c r="B257" s="39"/>
+      <c r="C257" s="4">
+        <v>43678</v>
+      </c>
+      <c r="D257" s="3">
+        <v>98.9</v>
+      </c>
+      <c r="E257" s="3">
+        <v>249</v>
+      </c>
+      <c r="F257" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A258" s="39"/>
+      <c r="B258" s="39"/>
+      <c r="C258" s="4">
+        <v>43683</v>
+      </c>
+      <c r="D258" s="3">
+        <v>108.2</v>
+      </c>
+      <c r="E258" s="3">
+        <v>155</v>
+      </c>
+      <c r="F258" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A259" s="39"/>
+      <c r="B259" s="39"/>
+      <c r="C259" s="4">
+        <v>43697</v>
+      </c>
+      <c r="D259" s="3">
+        <v>126.1</v>
+      </c>
+      <c r="E259" s="3">
+        <v>285</v>
+      </c>
+      <c r="F259" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G259" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A260" s="39"/>
+      <c r="B260" s="39"/>
+      <c r="C260" s="4">
+        <v>43712</v>
+      </c>
+      <c r="D260" s="3">
+        <v>107.3</v>
+      </c>
+      <c r="E260" s="3">
+        <v>28</v>
+      </c>
+      <c r="F260" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G260" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A261" s="39"/>
+      <c r="B261" s="39"/>
+      <c r="C261" s="4">
+        <v>43977</v>
+      </c>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3">
+        <v>2</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A262" s="39"/>
+      <c r="B262" s="39"/>
+      <c r="C262" s="4">
+        <v>43986</v>
+      </c>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3">
+        <v>50</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A263" s="39"/>
+      <c r="B263" s="39"/>
+      <c r="C263" s="4">
+        <v>43991</v>
+      </c>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A238" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B238" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C238" s="4">
-        <v>43606</v>
-      </c>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3">
-        <v>5</v>
-      </c>
-      <c r="F238" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A239" s="25"/>
-      <c r="B239" s="25"/>
-      <c r="C239" s="4">
-        <v>43614</v>
-      </c>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3">
-        <v>6</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A240" s="25"/>
-      <c r="B240" s="25"/>
-      <c r="C240" s="4">
-        <v>43620</v>
-      </c>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3">
-        <v>2</v>
-      </c>
-      <c r="F240" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A241" s="25"/>
-      <c r="B241" s="25"/>
-      <c r="C241" s="4">
-        <v>43627</v>
-      </c>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3">
-        <v>7</v>
-      </c>
-      <c r="F241" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A242" s="25"/>
-      <c r="B242" s="25"/>
-      <c r="C242" s="4">
-        <v>43634</v>
-      </c>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3">
-        <v>50</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A243" s="25"/>
-      <c r="B243" s="25"/>
-      <c r="C243" s="4">
-        <v>43641</v>
-      </c>
-      <c r="D243" s="3">
-        <v>12.4</v>
-      </c>
-      <c r="E243" s="3">
-        <v>71</v>
-      </c>
-      <c r="F243" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A244" s="25"/>
-      <c r="B244" s="25"/>
-      <c r="C244" s="4">
-        <v>43648</v>
-      </c>
-      <c r="D244" s="3">
-        <v>29</v>
-      </c>
-      <c r="E244" s="3">
-        <v>411</v>
-      </c>
-      <c r="F244" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A245" s="25"/>
-      <c r="B245" s="25"/>
-      <c r="C245" s="4">
-        <v>43655</v>
-      </c>
-      <c r="D245" s="3">
-        <v>47.2</v>
-      </c>
-      <c r="E245" s="3">
-        <v>23</v>
-      </c>
-      <c r="F245" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G245" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A246" s="25"/>
-      <c r="B246" s="25"/>
-      <c r="C246" s="4">
-        <v>43663</v>
-      </c>
-      <c r="D246" s="3">
-        <v>119.5</v>
-      </c>
-      <c r="E246" s="3">
-        <v>727</v>
-      </c>
-      <c r="F246" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G246" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A247" s="25"/>
-      <c r="B247" s="25"/>
-      <c r="C247" s="4">
-        <v>43669</v>
-      </c>
-      <c r="D247" s="3">
-        <v>102.3</v>
-      </c>
-      <c r="E247" s="3">
-        <v>23</v>
-      </c>
-      <c r="F247" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G247" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A248" s="25"/>
-      <c r="B248" s="25"/>
-      <c r="C248" s="4">
-        <v>43678</v>
-      </c>
-      <c r="D248" s="3">
-        <v>98.9</v>
-      </c>
-      <c r="E248" s="3">
-        <v>249</v>
-      </c>
-      <c r="F248" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G248" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A249" s="25"/>
-      <c r="B249" s="25"/>
-      <c r="C249" s="4">
-        <v>43683</v>
-      </c>
-      <c r="D249" s="3">
-        <v>108.2</v>
-      </c>
-      <c r="E249" s="3">
-        <v>155</v>
-      </c>
-      <c r="F249" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G249" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A250" s="25"/>
-      <c r="B250" s="25"/>
-      <c r="C250" s="4">
-        <v>43697</v>
-      </c>
-      <c r="D250" s="3">
-        <v>126.1</v>
-      </c>
-      <c r="E250" s="3">
-        <v>285</v>
-      </c>
-      <c r="F250" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G250" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A251" s="25"/>
-      <c r="B251" s="25"/>
-      <c r="C251" s="4">
-        <v>43712</v>
-      </c>
-      <c r="D251" s="3">
-        <v>107.3</v>
-      </c>
-      <c r="E251" s="3">
-        <v>28</v>
-      </c>
-      <c r="F251" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G251" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A252" s="25"/>
-      <c r="B252" s="25"/>
-      <c r="C252" s="4">
-        <v>43977</v>
-      </c>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3">
-        <v>2</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A253" s="25"/>
-      <c r="B253" s="25"/>
-      <c r="C253" s="4">
-        <v>43986</v>
-      </c>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3">
-        <v>50</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G253" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A254" s="25"/>
-      <c r="B254" s="25"/>
-      <c r="C254" s="4">
-        <v>43991</v>
-      </c>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3">
-        <v>6</v>
-      </c>
-      <c r="F254" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G254" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A255" s="25"/>
-      <c r="B255" s="25"/>
-      <c r="C255" s="4">
+      <c r="F263" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A264" s="39"/>
+      <c r="B264" s="39"/>
+      <c r="C264" s="4">
         <v>44000</v>
       </c>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3">
+      <c r="D264" s="3"/>
+      <c r="E264" s="3">
         <v>38</v>
       </c>
-      <c r="F255" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A256" s="25"/>
-      <c r="B256" s="25"/>
-      <c r="C256" s="4">
+      <c r="F264" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A265" s="39"/>
+      <c r="B265" s="39"/>
+      <c r="C265" s="4">
         <v>44005</v>
-      </c>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3">
-        <v>25</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G256" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A257" s="25"/>
-      <c r="B257" s="25"/>
-      <c r="C257" s="4">
-        <v>44011</v>
-      </c>
-      <c r="D257" s="3">
-        <v>25.5</v>
-      </c>
-      <c r="E257" s="3">
-        <v>38</v>
-      </c>
-      <c r="F257" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A258" s="25"/>
-      <c r="B258" s="25"/>
-      <c r="C258" s="4">
-        <v>44019</v>
-      </c>
-      <c r="D258" s="3">
-        <v>14.5</v>
-      </c>
-      <c r="E258" s="3">
-        <v>3</v>
-      </c>
-      <c r="F258" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G258" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A259" s="25"/>
-      <c r="B259" s="25"/>
-      <c r="C259" s="4">
-        <v>44025</v>
-      </c>
-      <c r="D259" s="3">
-        <v>28.6</v>
-      </c>
-      <c r="E259" s="3">
-        <v>178</v>
-      </c>
-      <c r="F259" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G259" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A260" s="25"/>
-      <c r="B260" s="25"/>
-      <c r="C260" s="4">
-        <v>44032</v>
-      </c>
-      <c r="D260" s="3">
-        <v>33.799999999999997</v>
-      </c>
-      <c r="E260" s="3">
-        <v>87</v>
-      </c>
-      <c r="F260" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G260" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A261" s="25"/>
-      <c r="B261" s="25"/>
-      <c r="C261" s="4">
-        <v>44039</v>
-      </c>
-      <c r="D261" s="3">
-        <v>23.4</v>
-      </c>
-      <c r="E261" s="3">
-        <v>4</v>
-      </c>
-      <c r="F261" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G261" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A262" s="25"/>
-      <c r="B262" s="25"/>
-      <c r="C262" s="4">
-        <v>44048</v>
-      </c>
-      <c r="D262" s="3">
-        <v>31.9</v>
-      </c>
-      <c r="E262" s="3">
-        <v>178</v>
-      </c>
-      <c r="F262" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G262" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A263" s="25"/>
-      <c r="B263" s="25"/>
-      <c r="C263" s="4">
-        <v>44054</v>
-      </c>
-      <c r="D263" s="3">
-        <v>39.700000000000003</v>
-      </c>
-      <c r="E263" s="3">
-        <v>9</v>
-      </c>
-      <c r="F263" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G263" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A264" s="26"/>
-      <c r="B264" s="26"/>
-      <c r="C264" s="4">
-        <v>44061</v>
-      </c>
-      <c r="D264" s="3">
-        <v>35.1</v>
-      </c>
-      <c r="E264" s="3">
-        <v>96</v>
-      </c>
-      <c r="F264" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G264" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A265" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B265" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C265" s="4">
-        <v>43606</v>
       </c>
       <c r="D265" s="3"/>
       <c r="E265" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F265" s="3" t="s">
         <v>10</v>
@@ -5741,15 +5870,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A266" s="25"/>
-      <c r="B266" s="25"/>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A266" s="39"/>
+      <c r="B266" s="39"/>
       <c r="C266" s="4">
-        <v>43614</v>
-      </c>
-      <c r="D266" s="3"/>
+        <v>44011</v>
+      </c>
+      <c r="D266" s="3">
+        <v>25.5</v>
+      </c>
       <c r="E266" s="3">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F266" s="3" t="s">
         <v>10</v>
@@ -5758,13 +5889,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A267" s="25"/>
-      <c r="B267" s="25"/>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A267" s="39"/>
+      <c r="B267" s="39"/>
       <c r="C267" s="4">
-        <v>43620</v>
-      </c>
-      <c r="D267" s="3"/>
+        <v>44019</v>
+      </c>
+      <c r="D267" s="3">
+        <v>14.5</v>
+      </c>
       <c r="E267" s="3">
         <v>3</v>
       </c>
@@ -5775,240 +5908,246 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A268" s="25"/>
-      <c r="B268" s="25"/>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A268" s="39"/>
+      <c r="B268" s="39"/>
       <c r="C268" s="4">
+        <v>44025</v>
+      </c>
+      <c r="D268" s="3">
+        <v>28.6</v>
+      </c>
+      <c r="E268" s="3">
+        <v>178</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A269" s="39"/>
+      <c r="B269" s="39"/>
+      <c r="C269" s="4">
+        <v>44032</v>
+      </c>
+      <c r="D269" s="3">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E269" s="3">
+        <v>87</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A270" s="39"/>
+      <c r="B270" s="39"/>
+      <c r="C270" s="4">
+        <v>44039</v>
+      </c>
+      <c r="D270" s="3">
+        <v>23.4</v>
+      </c>
+      <c r="E270" s="3">
+        <v>4</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G270" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A271" s="39"/>
+      <c r="B271" s="39"/>
+      <c r="C271" s="4">
+        <v>44048</v>
+      </c>
+      <c r="D271" s="3">
+        <v>31.9</v>
+      </c>
+      <c r="E271" s="3">
+        <v>178</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G271" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A272" s="40"/>
+      <c r="B272" s="40"/>
+      <c r="C272" s="4">
+        <v>44054</v>
+      </c>
+      <c r="D272" s="3">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="E272" s="3">
+        <v>9</v>
+      </c>
+      <c r="F272" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G272" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I272" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A273" s="51"/>
+      <c r="B273" s="51"/>
+      <c r="C273" s="51"/>
+      <c r="D273" s="51"/>
+      <c r="E273" s="51"/>
+      <c r="F273" s="51"/>
+      <c r="G273" s="51"/>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A274" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B274" s="52"/>
+      <c r="C274" s="52"/>
+      <c r="D274" s="52"/>
+      <c r="E274" s="52"/>
+      <c r="F274" s="52"/>
+      <c r="G274" s="52"/>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A275" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B275" s="53"/>
+      <c r="C275" s="53"/>
+      <c r="D275" s="53"/>
+      <c r="E275" s="53"/>
+      <c r="F275" s="53"/>
+      <c r="G275" s="53"/>
+    </row>
+    <row r="276" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A276" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F276" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G276" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I276">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A277" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B277" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" s="4">
+        <v>44061</v>
+      </c>
+      <c r="D277" s="3">
+        <v>35.1</v>
+      </c>
+      <c r="E277" s="3">
+        <v>96</v>
+      </c>
+      <c r="F277" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G277" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A278" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B278" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C278" s="4">
+        <v>43606</v>
+      </c>
+      <c r="D278" s="3"/>
+      <c r="E278" s="3">
+        <v>1</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A279" s="39"/>
+      <c r="B279" s="39"/>
+      <c r="C279" s="4">
+        <v>43614</v>
+      </c>
+      <c r="D279" s="3"/>
+      <c r="E279" s="3">
+        <v>1</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A280" s="39"/>
+      <c r="B280" s="39"/>
+      <c r="C280" s="4">
+        <v>43620</v>
+      </c>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3">
+        <v>3</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A281" s="39"/>
+      <c r="B281" s="39"/>
+      <c r="C281" s="4">
         <v>43627</v>
       </c>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3">
-        <v>1</v>
-      </c>
-      <c r="F268" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A269" s="25"/>
-      <c r="B269" s="25"/>
-      <c r="C269" s="4">
-        <v>43634</v>
-      </c>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3">
-        <v>1</v>
-      </c>
-      <c r="F269" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G269" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A270" s="25"/>
-      <c r="B270" s="25"/>
-      <c r="C270" s="4">
-        <v>43641</v>
-      </c>
-      <c r="D270" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="E270" s="3">
-        <v>8</v>
-      </c>
-      <c r="F270" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G270" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A271" s="25"/>
-      <c r="B271" s="25"/>
-      <c r="C271" s="4">
-        <v>43648</v>
-      </c>
-      <c r="D271" s="3">
-        <v>1.9</v>
-      </c>
-      <c r="E271" s="3">
-        <v>1</v>
-      </c>
-      <c r="F271" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G271" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A272" s="25"/>
-      <c r="B272" s="25"/>
-      <c r="C272" s="4">
-        <v>43655</v>
-      </c>
-      <c r="D272" s="3">
-        <v>1.7</v>
-      </c>
-      <c r="E272" s="3">
-        <v>2</v>
-      </c>
-      <c r="F272" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G272" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A273" s="25"/>
-      <c r="B273" s="25"/>
-      <c r="C273" s="4">
-        <v>43663</v>
-      </c>
-      <c r="D273" s="3">
-        <v>2.6</v>
-      </c>
-      <c r="E273" s="3">
-        <v>7</v>
-      </c>
-      <c r="F273" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G273" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A274" s="25"/>
-      <c r="B274" s="25"/>
-      <c r="C274" s="4">
-        <v>43669</v>
-      </c>
-      <c r="D274" s="3">
-        <v>3</v>
-      </c>
-      <c r="E274" s="3">
-        <v>2</v>
-      </c>
-      <c r="F274" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G274" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A275" s="26"/>
-      <c r="B275" s="26"/>
-      <c r="C275" s="4">
-        <v>43678</v>
-      </c>
-      <c r="D275" s="3">
-        <v>4.7</v>
-      </c>
-      <c r="E275" s="3">
-        <v>18</v>
-      </c>
-      <c r="F275" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G275" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A276" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B276" s="23"/>
-      <c r="C276" s="23"/>
-      <c r="D276" s="23"/>
-      <c r="E276" s="23"/>
-      <c r="F276" s="23"/>
-      <c r="G276" s="23"/>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A277" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B277" s="23"/>
-      <c r="C277" s="23"/>
-      <c r="D277" s="23"/>
-      <c r="E277" s="23"/>
-      <c r="F277" s="23"/>
-      <c r="G277" s="23"/>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A278" s="23"/>
-      <c r="B278" s="23"/>
-      <c r="C278" s="23"/>
-      <c r="D278" s="23"/>
-      <c r="E278" s="23"/>
-      <c r="F278" s="23"/>
-      <c r="G278" s="23"/>
-    </row>
-    <row r="279" spans="1:7" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A279" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D279" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E279" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F279" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G279" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A280" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B280" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C280" s="4">
-        <v>43683</v>
-      </c>
-      <c r="D280" s="3">
-        <v>4</v>
-      </c>
-      <c r="E280" s="3">
-        <v>2</v>
-      </c>
-      <c r="F280" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G280" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A281" s="25"/>
-      <c r="B281" s="25"/>
-      <c r="C281" s="4">
-        <v>43697</v>
-      </c>
-      <c r="D281" s="3">
-        <v>2.9</v>
-      </c>
+      <c r="D281" s="3"/>
       <c r="E281" s="3">
         <v>1</v>
       </c>
@@ -6019,17 +6158,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A282" s="25"/>
-      <c r="B282" s="25"/>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A282" s="39"/>
+      <c r="B282" s="39"/>
       <c r="C282" s="4">
-        <v>43712</v>
-      </c>
-      <c r="D282" s="3">
-        <v>2.2000000000000002</v>
-      </c>
+        <v>43634</v>
+      </c>
+      <c r="D282" s="3"/>
       <c r="E282" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F282" s="3" t="s">
         <v>10</v>
@@ -6038,33 +6175,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A283" s="25"/>
-      <c r="B283" s="25"/>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A283" s="39"/>
+      <c r="B283" s="39"/>
       <c r="C283" s="4">
-        <v>43977</v>
-      </c>
-      <c r="D283" s="3"/>
+        <v>43641</v>
+      </c>
+      <c r="D283" s="3">
+        <v>1.9</v>
+      </c>
       <c r="E283" s="3">
+        <v>8</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A284" s="39"/>
+      <c r="B284" s="39"/>
+      <c r="C284" s="4">
+        <v>43648</v>
+      </c>
+      <c r="D284" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="E284" s="3">
         <v>1</v>
       </c>
-      <c r="F283" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G283" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A284" s="25"/>
-      <c r="B284" s="25"/>
-      <c r="C284" s="4">
-        <v>43986</v>
-      </c>
-      <c r="D284" s="3"/>
-      <c r="E284" s="3">
-        <v>6</v>
-      </c>
       <c r="F284" s="3" t="s">
         <v>10</v>
       </c>
@@ -6072,13 +6213,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A285" s="25"/>
-      <c r="B285" s="25"/>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A285" s="39"/>
+      <c r="B285" s="39"/>
       <c r="C285" s="4">
-        <v>43991</v>
-      </c>
-      <c r="D285" s="3"/>
+        <v>43655</v>
+      </c>
+      <c r="D285" s="3">
+        <v>1.7</v>
+      </c>
       <c r="E285" s="3">
         <v>2</v>
       </c>
@@ -6089,15 +6232,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A286" s="25"/>
-      <c r="B286" s="25"/>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A286" s="39"/>
+      <c r="B286" s="39"/>
       <c r="C286" s="4">
-        <v>44000</v>
-      </c>
-      <c r="D286" s="3"/>
+        <v>43663</v>
+      </c>
+      <c r="D286" s="3">
+        <v>2.6</v>
+      </c>
       <c r="E286" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>10</v>
@@ -6106,13 +6251,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A287" s="25"/>
-      <c r="B287" s="25"/>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A287" s="39"/>
+      <c r="B287" s="39"/>
       <c r="C287" s="4">
-        <v>44005</v>
-      </c>
-      <c r="D287" s="3"/>
+        <v>43669</v>
+      </c>
+      <c r="D287" s="3">
+        <v>3</v>
+      </c>
       <c r="E287" s="3">
         <v>2</v>
       </c>
@@ -6123,237 +6270,417 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A288" s="25"/>
-      <c r="B288" s="25"/>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A288" s="39"/>
+      <c r="B288" s="39"/>
       <c r="C288" s="4">
+        <v>43678</v>
+      </c>
+      <c r="D288" s="3">
+        <v>4.7</v>
+      </c>
+      <c r="E288" s="3">
+        <v>18</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I288">
+        <f>284-239</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289" s="39"/>
+      <c r="B289" s="39"/>
+      <c r="C289" s="4">
+        <v>43683</v>
+      </c>
+      <c r="D289" s="3">
+        <v>4</v>
+      </c>
+      <c r="E289" s="3">
+        <v>2</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290" s="39"/>
+      <c r="B290" s="39"/>
+      <c r="C290" s="4">
+        <v>43697</v>
+      </c>
+      <c r="D290" s="3">
+        <v>2.9</v>
+      </c>
+      <c r="E290" s="3">
+        <v>1</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291" s="39"/>
+      <c r="B291" s="39"/>
+      <c r="C291" s="4">
+        <v>43712</v>
+      </c>
+      <c r="D291" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E291" s="3">
+        <v>5</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292" s="39"/>
+      <c r="B292" s="39"/>
+      <c r="C292" s="4">
+        <v>43977</v>
+      </c>
+      <c r="D292" s="3"/>
+      <c r="E292" s="3">
+        <v>1</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293" s="39"/>
+      <c r="B293" s="39"/>
+      <c r="C293" s="4">
+        <v>43986</v>
+      </c>
+      <c r="D293" s="3"/>
+      <c r="E293" s="3">
+        <v>6</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294" s="39"/>
+      <c r="B294" s="39"/>
+      <c r="C294" s="4">
+        <v>43991</v>
+      </c>
+      <c r="D294" s="3"/>
+      <c r="E294" s="3">
+        <v>2</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295" s="39"/>
+      <c r="B295" s="39"/>
+      <c r="C295" s="4">
+        <v>44000</v>
+      </c>
+      <c r="D295" s="3"/>
+      <c r="E295" s="3">
+        <v>1</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296" s="39"/>
+      <c r="B296" s="39"/>
+      <c r="C296" s="4">
+        <v>44005</v>
+      </c>
+      <c r="D296" s="3"/>
+      <c r="E296" s="3">
+        <v>2</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297" s="39"/>
+      <c r="B297" s="39"/>
+      <c r="C297" s="4">
         <v>44011</v>
       </c>
-      <c r="D288" s="3">
+      <c r="D297" s="3">
         <v>1.9</v>
       </c>
-      <c r="E288" s="3">
+      <c r="E297" s="3">
         <v>1</v>
       </c>
-      <c r="F288" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G288" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A289" s="25"/>
-      <c r="B289" s="25"/>
-      <c r="C289" s="4">
+      <c r="F297" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298" s="39"/>
+      <c r="B298" s="39"/>
+      <c r="C298" s="4">
         <v>44019</v>
       </c>
-      <c r="D289" s="3">
+      <c r="D298" s="3">
         <v>1.6</v>
       </c>
-      <c r="E289" s="3">
+      <c r="E298" s="3">
         <v>3</v>
       </c>
-      <c r="F289" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A290" s="25"/>
-      <c r="B290" s="25"/>
-      <c r="C290" s="4">
+      <c r="F298" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299" s="39"/>
+      <c r="B299" s="39"/>
+      <c r="C299" s="4">
         <v>44025</v>
       </c>
-      <c r="D290" s="3">
+      <c r="D299" s="3">
         <v>1.6</v>
       </c>
-      <c r="E290" s="3">
+      <c r="E299" s="3">
         <v>2</v>
       </c>
-      <c r="F290" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G290" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A291" s="25"/>
-      <c r="B291" s="25"/>
-      <c r="C291" s="4">
+      <c r="F299" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300" s="39"/>
+      <c r="B300" s="39"/>
+      <c r="C300" s="4">
         <v>44032</v>
       </c>
-      <c r="D291" s="3">
+      <c r="D300" s="3">
         <v>1.6</v>
       </c>
-      <c r="E291" s="3">
+      <c r="E300" s="3">
         <v>1</v>
       </c>
-      <c r="F291" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G291" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A292" s="25"/>
-      <c r="B292" s="25"/>
-      <c r="C292" s="4">
+      <c r="F300" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301" s="39"/>
+      <c r="B301" s="39"/>
+      <c r="C301" s="4">
         <v>44039</v>
       </c>
-      <c r="D292" s="3">
+      <c r="D301" s="3">
         <v>1.2</v>
       </c>
-      <c r="E292" s="3">
+      <c r="E301" s="3">
         <v>0.5</v>
       </c>
-      <c r="F292" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G292" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A293" s="25"/>
-      <c r="B293" s="25"/>
-      <c r="C293" s="4">
+      <c r="F301" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302" s="39"/>
+      <c r="B302" s="39"/>
+      <c r="C302" s="4">
         <v>44048</v>
       </c>
-      <c r="D293" s="3">
+      <c r="D302" s="3">
         <v>1.4</v>
       </c>
-      <c r="E293" s="3">
+      <c r="E302" s="3">
         <v>2</v>
       </c>
-      <c r="F293" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G293" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A294" s="25"/>
-      <c r="B294" s="25"/>
-      <c r="C294" s="4">
+      <c r="F302" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303" s="39"/>
+      <c r="B303" s="39"/>
+      <c r="C303" s="4">
         <v>44054</v>
       </c>
-      <c r="D294" s="3">
+      <c r="D303" s="3">
         <v>1</v>
       </c>
-      <c r="E294" s="3">
+      <c r="E303" s="3">
         <v>0.5</v>
       </c>
-      <c r="F294" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G294" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A295" s="26"/>
-      <c r="B295" s="26"/>
-      <c r="C295" s="4">
+      <c r="F303" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304" s="40"/>
+      <c r="B304" s="40"/>
+      <c r="C304" s="4">
         <v>44061</v>
       </c>
-      <c r="D295" s="3">
+      <c r="D304" s="3">
         <v>1.3</v>
       </c>
-      <c r="E295" s="3">
+      <c r="E304" s="3">
         <v>8</v>
       </c>
-      <c r="F295" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G295" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A296" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B296" s="23"/>
-      <c r="C296" s="23"/>
-      <c r="D296" s="23"/>
-      <c r="E296" s="23"/>
-      <c r="F296" s="23"/>
-      <c r="G296" s="23"/>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A297" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B297" s="23"/>
-      <c r="C297" s="23"/>
-      <c r="D297" s="23"/>
-      <c r="E297" s="23"/>
-      <c r="F297" s="23"/>
-      <c r="G297" s="23"/>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A298" s="23"/>
-      <c r="B298" s="23"/>
-      <c r="C298" s="23"/>
-      <c r="D298" s="23"/>
-      <c r="E298" s="23"/>
-      <c r="F298" s="23"/>
-      <c r="G298" s="23"/>
+      <c r="F304" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305" s="51"/>
+      <c r="B305" s="51"/>
+      <c r="C305" s="51"/>
+      <c r="D305" s="51"/>
+      <c r="E305" s="51"/>
+      <c r="F305" s="51"/>
+      <c r="G305" s="51"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B306" s="52"/>
+      <c r="C306" s="52"/>
+      <c r="D306" s="52"/>
+      <c r="E306" s="52"/>
+      <c r="F306" s="52"/>
+      <c r="G306" s="52"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B307" s="53"/>
+      <c r="C307" s="53"/>
+      <c r="D307" s="53"/>
+      <c r="E307" s="53"/>
+      <c r="F307" s="53"/>
+      <c r="G307" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="A296:G296"/>
-    <mergeCell ref="A297:G297"/>
-    <mergeCell ref="A298:G298"/>
-    <mergeCell ref="A91:A114"/>
-    <mergeCell ref="B91:B114"/>
-    <mergeCell ref="A277:G277"/>
-    <mergeCell ref="A278:G278"/>
-    <mergeCell ref="A265:A275"/>
-    <mergeCell ref="B265:B275"/>
-    <mergeCell ref="A280:A295"/>
-    <mergeCell ref="B280:B295"/>
-    <mergeCell ref="A234:G234"/>
+  <mergeCells count="61">
+    <mergeCell ref="A216:A234"/>
+    <mergeCell ref="B216:B234"/>
+    <mergeCell ref="B185:B194"/>
+    <mergeCell ref="A185:A194"/>
+    <mergeCell ref="B200:B215"/>
+    <mergeCell ref="A200:A215"/>
+    <mergeCell ref="B239:B246"/>
+    <mergeCell ref="A239:A246"/>
+    <mergeCell ref="B278:B304"/>
+    <mergeCell ref="B247:B272"/>
+    <mergeCell ref="A247:A272"/>
+    <mergeCell ref="A278:A304"/>
+    <mergeCell ref="A305:G305"/>
+    <mergeCell ref="A306:G306"/>
+    <mergeCell ref="A307:G307"/>
+    <mergeCell ref="A274:G274"/>
+    <mergeCell ref="A275:G275"/>
     <mergeCell ref="A235:G235"/>
     <mergeCell ref="A236:G236"/>
-    <mergeCell ref="A238:A264"/>
-    <mergeCell ref="B238:B264"/>
-    <mergeCell ref="A276:G276"/>
+    <mergeCell ref="A237:G237"/>
+    <mergeCell ref="A273:G273"/>
+    <mergeCell ref="A113:G113"/>
+    <mergeCell ref="A114:G114"/>
     <mergeCell ref="A115:G115"/>
-    <mergeCell ref="A116:G116"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="A196:G196"/>
+    <mergeCell ref="A197:G197"/>
+    <mergeCell ref="A198:G198"/>
+    <mergeCell ref="A117:A125"/>
+    <mergeCell ref="B117:B125"/>
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="B2:B28"/>
+    <mergeCell ref="B29:B34"/>
+    <mergeCell ref="A29:A34"/>
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="B40:B60"/>
+    <mergeCell ref="A40:A60"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A75:G75"/>
+    <mergeCell ref="A76:G76"/>
+    <mergeCell ref="A77:G77"/>
+    <mergeCell ref="B93:B111"/>
+    <mergeCell ref="A93:A111"/>
+    <mergeCell ref="A79:A92"/>
+    <mergeCell ref="B79:B92"/>
+    <mergeCell ref="A74:G74"/>
+    <mergeCell ref="A61:A73"/>
+    <mergeCell ref="B61:B73"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="A195:G195"/>
+    <mergeCell ref="A161:A184"/>
+    <mergeCell ref="B161:B184"/>
+    <mergeCell ref="A149:G149"/>
+    <mergeCell ref="A150:G150"/>
+    <mergeCell ref="A151:G151"/>
+    <mergeCell ref="A153:A155"/>
+    <mergeCell ref="B153:B155"/>
     <mergeCell ref="A156:G156"/>
     <mergeCell ref="A157:G157"/>
-    <mergeCell ref="A207:A233"/>
-    <mergeCell ref="B207:B233"/>
-    <mergeCell ref="A195:G195"/>
-    <mergeCell ref="A196:G196"/>
-    <mergeCell ref="A197:G197"/>
-    <mergeCell ref="A80:A90"/>
-    <mergeCell ref="B80:B90"/>
-    <mergeCell ref="A123:A148"/>
-    <mergeCell ref="B123:B148"/>
-    <mergeCell ref="A2:A28"/>
-    <mergeCell ref="B2:B28"/>
-    <mergeCell ref="B29:B35"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="A36:G36"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A76:G76"/>
-    <mergeCell ref="A77:G77"/>
-    <mergeCell ref="A78:G78"/>
-    <mergeCell ref="B40:B59"/>
-    <mergeCell ref="A40:A59"/>
-    <mergeCell ref="A60:A75"/>
-    <mergeCell ref="B60:B75"/>
+    <mergeCell ref="A158:G158"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
